--- a/core/seed_purchases_purchasereceivedetail.xlsx
+++ b/core/seed_purchases_purchasereceivedetail.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jan.cheng\Documents\Visual Studio Code\Django\p_sys01_repo01\core\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{697D0CE2-0665-4FF9-8DFB-BBFE061771E0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38BFE150-BECC-4C6C-966A-565A6E74129E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
   <si>
     <t>HEADER CODE</t>
   </si>
@@ -43,7 +43,7 @@
     <t>P REV 02</t>
   </si>
   <si>
-    <t>PV 002</t>
+    <t>PV 001</t>
   </si>
 </sst>
 </file>
@@ -884,10 +884,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -916,7 +916,7 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -927,7 +927,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>300</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -938,6 +938,17 @@
         <v>4</v>
       </c>
       <c r="C4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5">
         <v>500</v>
       </c>
     </row>

--- a/core/seed_purchases_purchasereceivedetail.xlsx
+++ b/core/seed_purchases_purchasereceivedetail.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jan.cheng\Documents\Visual Studio Code\Django\p_sys01_repo01\core\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38BFE150-BECC-4C6C-966A-565A6E74129E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CADBB175-A66A-42B2-8BEA-EB0586C92B40}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
   <si>
     <t>HEADER CODE</t>
   </si>
@@ -31,19 +31,43 @@
     <t>QUANTITY</t>
   </si>
   <si>
-    <t>PV 003</t>
-  </si>
-  <si>
-    <t>PV 005</t>
-  </si>
-  <si>
-    <t>P REV 01</t>
-  </si>
-  <si>
-    <t>P REV 02</t>
-  </si>
-  <si>
-    <t>PV 001</t>
+    <t>P-REC-1</t>
+  </si>
+  <si>
+    <t>PV-001</t>
+  </si>
+  <si>
+    <t>PV-002</t>
+  </si>
+  <si>
+    <t>PV-003</t>
+  </si>
+  <si>
+    <t>P-REC-2</t>
+  </si>
+  <si>
+    <t>P-REC-3</t>
+  </si>
+  <si>
+    <t>P-REC-4</t>
+  </si>
+  <si>
+    <t>P-REC-5</t>
+  </si>
+  <si>
+    <t>P-REC-6</t>
+  </si>
+  <si>
+    <t>P-REC-7</t>
+  </si>
+  <si>
+    <t>P-REC-8</t>
+  </si>
+  <si>
+    <t>P-REC-9</t>
+  </si>
+  <si>
+    <t>P-REC-10</t>
   </si>
 </sst>
 </file>
@@ -884,10 +908,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A2" sqref="A2:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -910,46 +934,134 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
       <c r="C3">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
       <c r="C4">
-        <v>500</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
       <c r="C5">
-        <v>500</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/core/seed_purchases_purchasereceivedetail.xlsx
+++ b/core/seed_purchases_purchasereceivedetail.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jan.cheng\Documents\Visual Studio Code\Django\p_sys01_repo01\core\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CADBB175-A66A-42B2-8BEA-EB0586C92B40}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{035918B1-175A-4E7F-BBD7-789529AC7704}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1551" uniqueCount="391">
   <si>
     <t>HEADER CODE</t>
   </si>
@@ -68,6 +68,1131 @@
   </si>
   <si>
     <t>P-REC-10</t>
+  </si>
+  <si>
+    <t>PV-004</t>
+  </si>
+  <si>
+    <t>PV-005</t>
+  </si>
+  <si>
+    <t>PV-006</t>
+  </si>
+  <si>
+    <t>PV-007</t>
+  </si>
+  <si>
+    <t>PV-008</t>
+  </si>
+  <si>
+    <t>PV-009</t>
+  </si>
+  <si>
+    <t>PV-010</t>
+  </si>
+  <si>
+    <t>PV-011</t>
+  </si>
+  <si>
+    <t>PV-012</t>
+  </si>
+  <si>
+    <t>PV-013</t>
+  </si>
+  <si>
+    <t>PV-014</t>
+  </si>
+  <si>
+    <t>PV-015</t>
+  </si>
+  <si>
+    <t>PV-016</t>
+  </si>
+  <si>
+    <t>PV-017</t>
+  </si>
+  <si>
+    <t>PV-018</t>
+  </si>
+  <si>
+    <t>PV-019</t>
+  </si>
+  <si>
+    <t>PV-020</t>
+  </si>
+  <si>
+    <t>PV-021</t>
+  </si>
+  <si>
+    <t>PV-022</t>
+  </si>
+  <si>
+    <t>PV-023</t>
+  </si>
+  <si>
+    <t>PV-024</t>
+  </si>
+  <si>
+    <t>PV-025</t>
+  </si>
+  <si>
+    <t>PV-026</t>
+  </si>
+  <si>
+    <t>PV-027</t>
+  </si>
+  <si>
+    <t>PV-028</t>
+  </si>
+  <si>
+    <t>PV-029</t>
+  </si>
+  <si>
+    <t>PV-030</t>
+  </si>
+  <si>
+    <t>PV-031</t>
+  </si>
+  <si>
+    <t>PV-032</t>
+  </si>
+  <si>
+    <t>PV-033</t>
+  </si>
+  <si>
+    <t>PV-034</t>
+  </si>
+  <si>
+    <t>PV-035</t>
+  </si>
+  <si>
+    <t>PV-036</t>
+  </si>
+  <si>
+    <t>PV-037</t>
+  </si>
+  <si>
+    <t>PV-038</t>
+  </si>
+  <si>
+    <t>PV-039</t>
+  </si>
+  <si>
+    <t>PV-040</t>
+  </si>
+  <si>
+    <t>PV-041</t>
+  </si>
+  <si>
+    <t>PV-042</t>
+  </si>
+  <si>
+    <t>PV-043</t>
+  </si>
+  <si>
+    <t>PV-044</t>
+  </si>
+  <si>
+    <t>PV-045</t>
+  </si>
+  <si>
+    <t>PV-046</t>
+  </si>
+  <si>
+    <t>PV-047</t>
+  </si>
+  <si>
+    <t>PV-048</t>
+  </si>
+  <si>
+    <t>PV-049</t>
+  </si>
+  <si>
+    <t>PV-050</t>
+  </si>
+  <si>
+    <t>PV-051</t>
+  </si>
+  <si>
+    <t>PV-052</t>
+  </si>
+  <si>
+    <t>PV-053</t>
+  </si>
+  <si>
+    <t>PV-054</t>
+  </si>
+  <si>
+    <t>PV-055</t>
+  </si>
+  <si>
+    <t>PV-056</t>
+  </si>
+  <si>
+    <t>PV-057</t>
+  </si>
+  <si>
+    <t>PV-058</t>
+  </si>
+  <si>
+    <t>PV-059</t>
+  </si>
+  <si>
+    <t>PV-060</t>
+  </si>
+  <si>
+    <t>PV-061</t>
+  </si>
+  <si>
+    <t>PV-062</t>
+  </si>
+  <si>
+    <t>PV-063</t>
+  </si>
+  <si>
+    <t>PV-064</t>
+  </si>
+  <si>
+    <t>PV-065</t>
+  </si>
+  <si>
+    <t>PV-066</t>
+  </si>
+  <si>
+    <t>PV-067</t>
+  </si>
+  <si>
+    <t>PV-068</t>
+  </si>
+  <si>
+    <t>PV-069</t>
+  </si>
+  <si>
+    <t>PV-070</t>
+  </si>
+  <si>
+    <t>PV-071</t>
+  </si>
+  <si>
+    <t>PV-072</t>
+  </si>
+  <si>
+    <t>PV-073</t>
+  </si>
+  <si>
+    <t>PV-074</t>
+  </si>
+  <si>
+    <t>PV-075</t>
+  </si>
+  <si>
+    <t>PV-076</t>
+  </si>
+  <si>
+    <t>PV-077</t>
+  </si>
+  <si>
+    <t>PV-078</t>
+  </si>
+  <si>
+    <t>PV-079</t>
+  </si>
+  <si>
+    <t>PV-080</t>
+  </si>
+  <si>
+    <t>PV-081</t>
+  </si>
+  <si>
+    <t>PV-082</t>
+  </si>
+  <si>
+    <t>PV-083</t>
+  </si>
+  <si>
+    <t>PV-084</t>
+  </si>
+  <si>
+    <t>PV-085</t>
+  </si>
+  <si>
+    <t>PV-086</t>
+  </si>
+  <si>
+    <t>PV-087</t>
+  </si>
+  <si>
+    <t>PV-088</t>
+  </si>
+  <si>
+    <t>PV-089</t>
+  </si>
+  <si>
+    <t>PV-090</t>
+  </si>
+  <si>
+    <t>PV-091</t>
+  </si>
+  <si>
+    <t>PV-092</t>
+  </si>
+  <si>
+    <t>PV-093</t>
+  </si>
+  <si>
+    <t>PV-094</t>
+  </si>
+  <si>
+    <t>PV-095</t>
+  </si>
+  <si>
+    <t>PV-096</t>
+  </si>
+  <si>
+    <t>PV-097</t>
+  </si>
+  <si>
+    <t>PV-098</t>
+  </si>
+  <si>
+    <t>PV-099</t>
+  </si>
+  <si>
+    <t>PV-100</t>
+  </si>
+  <si>
+    <t>PV-101</t>
+  </si>
+  <si>
+    <t>P-REC-11</t>
+  </si>
+  <si>
+    <t>P-REC-12</t>
+  </si>
+  <si>
+    <t>P-REC-13</t>
+  </si>
+  <si>
+    <t>P-REC-14</t>
+  </si>
+  <si>
+    <t>P-REC-15</t>
+  </si>
+  <si>
+    <t>P-REC-16</t>
+  </si>
+  <si>
+    <t>P-REC-17</t>
+  </si>
+  <si>
+    <t>P-REC-18</t>
+  </si>
+  <si>
+    <t>P-REC-19</t>
+  </si>
+  <si>
+    <t>P-REC-20</t>
+  </si>
+  <si>
+    <t>P-REC-21</t>
+  </si>
+  <si>
+    <t>P-REC-22</t>
+  </si>
+  <si>
+    <t>P-REC-23</t>
+  </si>
+  <si>
+    <t>P-REC-24</t>
+  </si>
+  <si>
+    <t>P-REC-25</t>
+  </si>
+  <si>
+    <t>P-REC-26</t>
+  </si>
+  <si>
+    <t>P-REC-27</t>
+  </si>
+  <si>
+    <t>P-REC-28</t>
+  </si>
+  <si>
+    <t>P-REC-29</t>
+  </si>
+  <si>
+    <t>P-REC-30</t>
+  </si>
+  <si>
+    <t>P-REC-31</t>
+  </si>
+  <si>
+    <t>P-REC-32</t>
+  </si>
+  <si>
+    <t>P-REC-33</t>
+  </si>
+  <si>
+    <t>P-REC-34</t>
+  </si>
+  <si>
+    <t>P-REC-35</t>
+  </si>
+  <si>
+    <t>P-REC-36</t>
+  </si>
+  <si>
+    <t>P-REC-37</t>
+  </si>
+  <si>
+    <t>P-REC-38</t>
+  </si>
+  <si>
+    <t>P-REC-39</t>
+  </si>
+  <si>
+    <t>P-REC-40</t>
+  </si>
+  <si>
+    <t>P-REC-41</t>
+  </si>
+  <si>
+    <t>P-REC-42</t>
+  </si>
+  <si>
+    <t>P-REC-43</t>
+  </si>
+  <si>
+    <t>P-REC-44</t>
+  </si>
+  <si>
+    <t>P-REC-45</t>
+  </si>
+  <si>
+    <t>P-REC-46</t>
+  </si>
+  <si>
+    <t>P-REC-47</t>
+  </si>
+  <si>
+    <t>P-REC-48</t>
+  </si>
+  <si>
+    <t>P-REC-49</t>
+  </si>
+  <si>
+    <t>P-REC-50</t>
+  </si>
+  <si>
+    <t>P-REC-51</t>
+  </si>
+  <si>
+    <t>P-REC-52</t>
+  </si>
+  <si>
+    <t>P-REC-53</t>
+  </si>
+  <si>
+    <t>P-REC-54</t>
+  </si>
+  <si>
+    <t>P-REC-55</t>
+  </si>
+  <si>
+    <t>P-REC-56</t>
+  </si>
+  <si>
+    <t>P-REC-57</t>
+  </si>
+  <si>
+    <t>P-REC-58</t>
+  </si>
+  <si>
+    <t>P-REC-59</t>
+  </si>
+  <si>
+    <t>P-REC-60</t>
+  </si>
+  <si>
+    <t>P-REC-61</t>
+  </si>
+  <si>
+    <t>P-REC-62</t>
+  </si>
+  <si>
+    <t>P-REC-63</t>
+  </si>
+  <si>
+    <t>P-REC-64</t>
+  </si>
+  <si>
+    <t>P-REC-65</t>
+  </si>
+  <si>
+    <t>P-REC-66</t>
+  </si>
+  <si>
+    <t>P-REC-67</t>
+  </si>
+  <si>
+    <t>P-REC-68</t>
+  </si>
+  <si>
+    <t>P-REC-69</t>
+  </si>
+  <si>
+    <t>P-REC-70</t>
+  </si>
+  <si>
+    <t>P-REC-71</t>
+  </si>
+  <si>
+    <t>P-REC-72</t>
+  </si>
+  <si>
+    <t>P-REC-73</t>
+  </si>
+  <si>
+    <t>P-REC-74</t>
+  </si>
+  <si>
+    <t>P-REC-75</t>
+  </si>
+  <si>
+    <t>P-REC-76</t>
+  </si>
+  <si>
+    <t>P-REC-77</t>
+  </si>
+  <si>
+    <t>P-REC-78</t>
+  </si>
+  <si>
+    <t>P-REC-79</t>
+  </si>
+  <si>
+    <t>P-REC-80</t>
+  </si>
+  <si>
+    <t>P-REC-81</t>
+  </si>
+  <si>
+    <t>P-REC-82</t>
+  </si>
+  <si>
+    <t>P-REC-83</t>
+  </si>
+  <si>
+    <t>P-REC-84</t>
+  </si>
+  <si>
+    <t>P-REC-85</t>
+  </si>
+  <si>
+    <t>P-REC-86</t>
+  </si>
+  <si>
+    <t>P-REC-87</t>
+  </si>
+  <si>
+    <t>P-REC-88</t>
+  </si>
+  <si>
+    <t>P-REC-89</t>
+  </si>
+  <si>
+    <t>P-REC-90</t>
+  </si>
+  <si>
+    <t>P-REC-91</t>
+  </si>
+  <si>
+    <t>P-REC-92</t>
+  </si>
+  <si>
+    <t>P-REC-93</t>
+  </si>
+  <si>
+    <t>P-REC-94</t>
+  </si>
+  <si>
+    <t>P-REC-95</t>
+  </si>
+  <si>
+    <t>P-REC-96</t>
+  </si>
+  <si>
+    <t>P-REC-97</t>
+  </si>
+  <si>
+    <t>P-REC-98</t>
+  </si>
+  <si>
+    <t>P-REC-99</t>
+  </si>
+  <si>
+    <t>P-REC-100</t>
+  </si>
+  <si>
+    <t>P-REC-101</t>
+  </si>
+  <si>
+    <t>P-REC-102</t>
+  </si>
+  <si>
+    <t>P-REC-103</t>
+  </si>
+  <si>
+    <t>P-REC-104</t>
+  </si>
+  <si>
+    <t>P-REC-105</t>
+  </si>
+  <si>
+    <t>P-REC-106</t>
+  </si>
+  <si>
+    <t>P-REC-107</t>
+  </si>
+  <si>
+    <t>P-REC-108</t>
+  </si>
+  <si>
+    <t>P-REC-109</t>
+  </si>
+  <si>
+    <t>P-REC-110</t>
+  </si>
+  <si>
+    <t>P-REC-111</t>
+  </si>
+  <si>
+    <t>P-REC-112</t>
+  </si>
+  <si>
+    <t>P-REC-113</t>
+  </si>
+  <si>
+    <t>P-REC-114</t>
+  </si>
+  <si>
+    <t>P-REC-115</t>
+  </si>
+  <si>
+    <t>P-REC-116</t>
+  </si>
+  <si>
+    <t>P-REC-117</t>
+  </si>
+  <si>
+    <t>P-REC-118</t>
+  </si>
+  <si>
+    <t>P-REC-119</t>
+  </si>
+  <si>
+    <t>P-REC-120</t>
+  </si>
+  <si>
+    <t>P-REC-121</t>
+  </si>
+  <si>
+    <t>P-REC-122</t>
+  </si>
+  <si>
+    <t>P-REC-123</t>
+  </si>
+  <si>
+    <t>P-REC-124</t>
+  </si>
+  <si>
+    <t>P-REC-125</t>
+  </si>
+  <si>
+    <t>P-REC-126</t>
+  </si>
+  <si>
+    <t>P-REC-127</t>
+  </si>
+  <si>
+    <t>P-REC-128</t>
+  </si>
+  <si>
+    <t>P-REC-129</t>
+  </si>
+  <si>
+    <t>P-REC-130</t>
+  </si>
+  <si>
+    <t>P-REC-131</t>
+  </si>
+  <si>
+    <t>P-REC-132</t>
+  </si>
+  <si>
+    <t>P-REC-133</t>
+  </si>
+  <si>
+    <t>P-REC-134</t>
+  </si>
+  <si>
+    <t>P-REC-135</t>
+  </si>
+  <si>
+    <t>P-REC-136</t>
+  </si>
+  <si>
+    <t>P-REC-137</t>
+  </si>
+  <si>
+    <t>P-REC-138</t>
+  </si>
+  <si>
+    <t>P-REC-139</t>
+  </si>
+  <si>
+    <t>P-REC-140</t>
+  </si>
+  <si>
+    <t>P-REC-141</t>
+  </si>
+  <si>
+    <t>P-REC-142</t>
+  </si>
+  <si>
+    <t>P-REC-143</t>
+  </si>
+  <si>
+    <t>P-REC-144</t>
+  </si>
+  <si>
+    <t>P-REC-145</t>
+  </si>
+  <si>
+    <t>P-REC-146</t>
+  </si>
+  <si>
+    <t>P-REC-147</t>
+  </si>
+  <si>
+    <t>P-REC-148</t>
+  </si>
+  <si>
+    <t>P-REC-149</t>
+  </si>
+  <si>
+    <t>P-REC-150</t>
+  </si>
+  <si>
+    <t>P-REC-151</t>
+  </si>
+  <si>
+    <t>P-REC-152</t>
+  </si>
+  <si>
+    <t>P-REC-153</t>
+  </si>
+  <si>
+    <t>P-REC-154</t>
+  </si>
+  <si>
+    <t>P-REC-155</t>
+  </si>
+  <si>
+    <t>P-REC-156</t>
+  </si>
+  <si>
+    <t>P-REC-157</t>
+  </si>
+  <si>
+    <t>P-REC-158</t>
+  </si>
+  <si>
+    <t>P-REC-159</t>
+  </si>
+  <si>
+    <t>P-REC-160</t>
+  </si>
+  <si>
+    <t>P-REC-161</t>
+  </si>
+  <si>
+    <t>P-REC-162</t>
+  </si>
+  <si>
+    <t>P-REC-163</t>
+  </si>
+  <si>
+    <t>P-REC-164</t>
+  </si>
+  <si>
+    <t>P-REC-165</t>
+  </si>
+  <si>
+    <t>P-REC-166</t>
+  </si>
+  <si>
+    <t>P-REC-167</t>
+  </si>
+  <si>
+    <t>P-REC-168</t>
+  </si>
+  <si>
+    <t>P-REC-169</t>
+  </si>
+  <si>
+    <t>P-REC-170</t>
+  </si>
+  <si>
+    <t>P-REC-171</t>
+  </si>
+  <si>
+    <t>P-REC-172</t>
+  </si>
+  <si>
+    <t>P-REC-173</t>
+  </si>
+  <si>
+    <t>P-REC-174</t>
+  </si>
+  <si>
+    <t>P-REC-175</t>
+  </si>
+  <si>
+    <t>P-REC-176</t>
+  </si>
+  <si>
+    <t>P-REC-177</t>
+  </si>
+  <si>
+    <t>P-REC-178</t>
+  </si>
+  <si>
+    <t>P-REC-179</t>
+  </si>
+  <si>
+    <t>P-REC-180</t>
+  </si>
+  <si>
+    <t>P-REC-181</t>
+  </si>
+  <si>
+    <t>P-REC-182</t>
+  </si>
+  <si>
+    <t>P-REC-183</t>
+  </si>
+  <si>
+    <t>P-REC-184</t>
+  </si>
+  <si>
+    <t>P-REC-185</t>
+  </si>
+  <si>
+    <t>P-REC-186</t>
+  </si>
+  <si>
+    <t>P-REC-187</t>
+  </si>
+  <si>
+    <t>P-REC-188</t>
+  </si>
+  <si>
+    <t>P-REC-189</t>
+  </si>
+  <si>
+    <t>P-REC-190</t>
+  </si>
+  <si>
+    <t>P-REC-191</t>
+  </si>
+  <si>
+    <t>P-REC-192</t>
+  </si>
+  <si>
+    <t>P-REC-193</t>
+  </si>
+  <si>
+    <t>P-REC-194</t>
+  </si>
+  <si>
+    <t>P-REC-195</t>
+  </si>
+  <si>
+    <t>P-REC-196</t>
+  </si>
+  <si>
+    <t>P-REC-197</t>
+  </si>
+  <si>
+    <t>P-REC-198</t>
+  </si>
+  <si>
+    <t>P-REC-199</t>
+  </si>
+  <si>
+    <t>P-REC-200</t>
+  </si>
+  <si>
+    <t>P-REC-201</t>
+  </si>
+  <si>
+    <t>P-REC-202</t>
+  </si>
+  <si>
+    <t>P-REC-203</t>
+  </si>
+  <si>
+    <t>P-REC-204</t>
+  </si>
+  <si>
+    <t>P-REC-205</t>
+  </si>
+  <si>
+    <t>P-REC-206</t>
+  </si>
+  <si>
+    <t>P-REC-207</t>
+  </si>
+  <si>
+    <t>P-REC-208</t>
+  </si>
+  <si>
+    <t>P-REC-209</t>
+  </si>
+  <si>
+    <t>P-REC-210</t>
+  </si>
+  <si>
+    <t>P-REC-211</t>
+  </si>
+  <si>
+    <t>P-REC-212</t>
+  </si>
+  <si>
+    <t>P-REC-213</t>
+  </si>
+  <si>
+    <t>P-REC-214</t>
+  </si>
+  <si>
+    <t>P-REC-215</t>
+  </si>
+  <si>
+    <t>P-REC-216</t>
+  </si>
+  <si>
+    <t>P-REC-217</t>
+  </si>
+  <si>
+    <t>P-REC-218</t>
+  </si>
+  <si>
+    <t>P-REC-219</t>
+  </si>
+  <si>
+    <t>P-REC-220</t>
+  </si>
+  <si>
+    <t>P-REC-221</t>
+  </si>
+  <si>
+    <t>P-REC-222</t>
+  </si>
+  <si>
+    <t>P-REC-223</t>
+  </si>
+  <si>
+    <t>P-REC-224</t>
+  </si>
+  <si>
+    <t>P-REC-225</t>
+  </si>
+  <si>
+    <t>P-REC-226</t>
+  </si>
+  <si>
+    <t>P-REC-227</t>
+  </si>
+  <si>
+    <t>P-REC-228</t>
+  </si>
+  <si>
+    <t>P-REC-229</t>
+  </si>
+  <si>
+    <t>P-REC-230</t>
+  </si>
+  <si>
+    <t>P-REC-231</t>
+  </si>
+  <si>
+    <t>P-REC-232</t>
+  </si>
+  <si>
+    <t>P-REC-233</t>
+  </si>
+  <si>
+    <t>P-REC-234</t>
+  </si>
+  <si>
+    <t>P-REC-235</t>
+  </si>
+  <si>
+    <t>P-REC-236</t>
+  </si>
+  <si>
+    <t>P-REC-237</t>
+  </si>
+  <si>
+    <t>P-REC-238</t>
+  </si>
+  <si>
+    <t>P-REC-239</t>
+  </si>
+  <si>
+    <t>P-REC-240</t>
+  </si>
+  <si>
+    <t>P-REC-241</t>
+  </si>
+  <si>
+    <t>P-REC-242</t>
+  </si>
+  <si>
+    <t>P-REC-243</t>
+  </si>
+  <si>
+    <t>P-REC-244</t>
+  </si>
+  <si>
+    <t>P-REC-245</t>
+  </si>
+  <si>
+    <t>P-REC-246</t>
+  </si>
+  <si>
+    <t>P-REC-247</t>
+  </si>
+  <si>
+    <t>P-REC-248</t>
+  </si>
+  <si>
+    <t>P-REC-249</t>
+  </si>
+  <si>
+    <t>P-REC-250</t>
+  </si>
+  <si>
+    <t>P-REC-251</t>
+  </si>
+  <si>
+    <t>P-REC-252</t>
+  </si>
+  <si>
+    <t>P-REC-253</t>
+  </si>
+  <si>
+    <t>P-REC-254</t>
+  </si>
+  <si>
+    <t>P-REC-255</t>
+  </si>
+  <si>
+    <t>P-REC-256</t>
+  </si>
+  <si>
+    <t>P-REC-257</t>
+  </si>
+  <si>
+    <t>P-REC-258</t>
+  </si>
+  <si>
+    <t>P-REC-259</t>
+  </si>
+  <si>
+    <t>P-REC-260</t>
+  </si>
+  <si>
+    <t>P-REC-261</t>
+  </si>
+  <si>
+    <t>P-REC-262</t>
+  </si>
+  <si>
+    <t>P-REC-263</t>
+  </si>
+  <si>
+    <t>P-REC-264</t>
+  </si>
+  <si>
+    <t>P-REC-265</t>
+  </si>
+  <si>
+    <t>P-REC-266</t>
+  </si>
+  <si>
+    <t>P-REC-267</t>
+  </si>
+  <si>
+    <t>P-REC-268</t>
+  </si>
+  <si>
+    <t>P-REC-269</t>
+  </si>
+  <si>
+    <t>P-REC-270</t>
+  </si>
+  <si>
+    <t>P-REC-271</t>
+  </si>
+  <si>
+    <t>P-REC-272</t>
+  </si>
+  <si>
+    <t>P-REC-273</t>
+  </si>
+  <si>
+    <t>P-REC-274</t>
+  </si>
+  <si>
+    <t>P-REC-275</t>
+  </si>
+  <si>
+    <t>P-REC-276</t>
+  </si>
+  <si>
+    <t>P-REC-277</t>
+  </si>
+  <si>
+    <t>P-REC-278</t>
+  </si>
+  <si>
+    <t>P-REC-279</t>
+  </si>
+  <si>
+    <t>P-REC-280</t>
+  </si>
+  <si>
+    <t>P-REC-281</t>
+  </si>
+  <si>
+    <t>P-REC-282</t>
+  </si>
+  <si>
+    <t>P-REC-283</t>
+  </si>
+  <si>
+    <t>P-REC-284</t>
+  </si>
+  <si>
+    <t>P-REC-285</t>
+  </si>
+  <si>
+    <t>P-REC-286</t>
+  </si>
+  <si>
+    <t>P-REC-287</t>
   </si>
 </sst>
 </file>
@@ -908,10 +2033,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C775"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C13"/>
+    <sheetView tabSelected="1" topLeftCell="A731" workbookViewId="0">
+      <selection activeCell="C745" sqref="C745"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -940,7 +2065,7 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>100</v>
+        <v>300</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -951,7 +2076,7 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>100</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -962,106 +2087,8488 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>100</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C5">
-        <v>100</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C6">
-        <v>100</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C7">
-        <v>100</v>
+        <v>395</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C8">
-        <v>100</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C9">
-        <v>100</v>
+        <v>300</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C10">
-        <v>100</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="C11">
-        <v>100</v>
+        <v>300</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C12">
-        <v>100</v>
+        <v>300</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>3</v>
+      </c>
+      <c r="B43" t="s">
+        <v>54</v>
+      </c>
+      <c r="C43">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>3</v>
+      </c>
+      <c r="B44" t="s">
+        <v>55</v>
+      </c>
+      <c r="C44">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B45" t="s">
+        <v>56</v>
+      </c>
+      <c r="C45">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" t="s">
+        <v>57</v>
+      </c>
+      <c r="C46">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>3</v>
+      </c>
+      <c r="B47" t="s">
+        <v>58</v>
+      </c>
+      <c r="C47">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>3</v>
+      </c>
+      <c r="B48" t="s">
+        <v>59</v>
+      </c>
+      <c r="C48">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>3</v>
+      </c>
+      <c r="B49" t="s">
+        <v>60</v>
+      </c>
+      <c r="C49">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>3</v>
+      </c>
+      <c r="B50" t="s">
+        <v>61</v>
+      </c>
+      <c r="C50">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>3</v>
+      </c>
+      <c r="B51" t="s">
+        <v>62</v>
+      </c>
+      <c r="C51">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>3</v>
+      </c>
+      <c r="B52" t="s">
+        <v>63</v>
+      </c>
+      <c r="C52">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>3</v>
+      </c>
+      <c r="B53" t="s">
+        <v>64</v>
+      </c>
+      <c r="C53">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>3</v>
+      </c>
+      <c r="B54" t="s">
+        <v>65</v>
+      </c>
+      <c r="C54">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>3</v>
+      </c>
+      <c r="B55" t="s">
+        <v>66</v>
+      </c>
+      <c r="C55">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>3</v>
+      </c>
+      <c r="B56" t="s">
+        <v>67</v>
+      </c>
+      <c r="C56">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>3</v>
+      </c>
+      <c r="B57" t="s">
+        <v>68</v>
+      </c>
+      <c r="C57">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>3</v>
+      </c>
+      <c r="B58" t="s">
+        <v>69</v>
+      </c>
+      <c r="C58">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>3</v>
+      </c>
+      <c r="B59" t="s">
+        <v>70</v>
+      </c>
+      <c r="C59">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>3</v>
+      </c>
+      <c r="B60" t="s">
+        <v>71</v>
+      </c>
+      <c r="C60">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>3</v>
+      </c>
+      <c r="B61" t="s">
+        <v>72</v>
+      </c>
+      <c r="C61">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>3</v>
+      </c>
+      <c r="B62" t="s">
+        <v>73</v>
+      </c>
+      <c r="C62">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>3</v>
+      </c>
+      <c r="B63" t="s">
+        <v>74</v>
+      </c>
+      <c r="C63">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>3</v>
+      </c>
+      <c r="B64" t="s">
+        <v>75</v>
+      </c>
+      <c r="C64">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>3</v>
+      </c>
+      <c r="B65" t="s">
+        <v>76</v>
+      </c>
+      <c r="C65">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>3</v>
+      </c>
+      <c r="B66" t="s">
+        <v>77</v>
+      </c>
+      <c r="C66">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>3</v>
+      </c>
+      <c r="B67" t="s">
+        <v>78</v>
+      </c>
+      <c r="C67">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>3</v>
+      </c>
+      <c r="B68" t="s">
+        <v>79</v>
+      </c>
+      <c r="C68">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>3</v>
+      </c>
+      <c r="B69" t="s">
+        <v>80</v>
+      </c>
+      <c r="C69">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>3</v>
+      </c>
+      <c r="B70" t="s">
+        <v>81</v>
+      </c>
+      <c r="C70">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>3</v>
+      </c>
+      <c r="B71" t="s">
+        <v>82</v>
+      </c>
+      <c r="C71">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>3</v>
+      </c>
+      <c r="B72" t="s">
+        <v>83</v>
+      </c>
+      <c r="C72">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>3</v>
+      </c>
+      <c r="B73" t="s">
+        <v>84</v>
+      </c>
+      <c r="C73">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>3</v>
+      </c>
+      <c r="B74" t="s">
+        <v>85</v>
+      </c>
+      <c r="C74">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>3</v>
+      </c>
+      <c r="B75" t="s">
+        <v>86</v>
+      </c>
+      <c r="C75">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>3</v>
+      </c>
+      <c r="B76" t="s">
+        <v>87</v>
+      </c>
+      <c r="C76">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>3</v>
+      </c>
+      <c r="B77" t="s">
+        <v>88</v>
+      </c>
+      <c r="C77">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>3</v>
+      </c>
+      <c r="B78" t="s">
+        <v>89</v>
+      </c>
+      <c r="C78">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>3</v>
+      </c>
+      <c r="B79" t="s">
+        <v>90</v>
+      </c>
+      <c r="C79">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>3</v>
+      </c>
+      <c r="B80" t="s">
+        <v>91</v>
+      </c>
+      <c r="C80">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>3</v>
+      </c>
+      <c r="B81" t="s">
+        <v>92</v>
+      </c>
+      <c r="C81">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>3</v>
+      </c>
+      <c r="B82" t="s">
+        <v>93</v>
+      </c>
+      <c r="C82">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>3</v>
+      </c>
+      <c r="B83" t="s">
+        <v>94</v>
+      </c>
+      <c r="C83">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>3</v>
+      </c>
+      <c r="B84" t="s">
+        <v>95</v>
+      </c>
+      <c r="C84">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>3</v>
+      </c>
+      <c r="B85" t="s">
+        <v>96</v>
+      </c>
+      <c r="C85">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>3</v>
+      </c>
+      <c r="B86" t="s">
+        <v>97</v>
+      </c>
+      <c r="C86">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>3</v>
+      </c>
+      <c r="B87" t="s">
+        <v>98</v>
+      </c>
+      <c r="C87">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>3</v>
+      </c>
+      <c r="B88" t="s">
+        <v>99</v>
+      </c>
+      <c r="C88">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>3</v>
+      </c>
+      <c r="B89" t="s">
+        <v>100</v>
+      </c>
+      <c r="C89">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>3</v>
+      </c>
+      <c r="B90" t="s">
+        <v>101</v>
+      </c>
+      <c r="C90">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>3</v>
+      </c>
+      <c r="B91" t="s">
+        <v>102</v>
+      </c>
+      <c r="C91">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>3</v>
+      </c>
+      <c r="B92" t="s">
+        <v>103</v>
+      </c>
+      <c r="C92">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>3</v>
+      </c>
+      <c r="B93" t="s">
+        <v>104</v>
+      </c>
+      <c r="C93">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>3</v>
+      </c>
+      <c r="B94" t="s">
+        <v>105</v>
+      </c>
+      <c r="C94">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>3</v>
+      </c>
+      <c r="B95" t="s">
+        <v>106</v>
+      </c>
+      <c r="C95">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>3</v>
+      </c>
+      <c r="B96" t="s">
+        <v>107</v>
+      </c>
+      <c r="C96">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>3</v>
+      </c>
+      <c r="B97" t="s">
+        <v>108</v>
+      </c>
+      <c r="C97">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>3</v>
+      </c>
+      <c r="B98" t="s">
+        <v>109</v>
+      </c>
+      <c r="C98">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>3</v>
+      </c>
+      <c r="B99" t="s">
+        <v>110</v>
+      </c>
+      <c r="C99">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>3</v>
+      </c>
+      <c r="B100" t="s">
+        <v>111</v>
+      </c>
+      <c r="C100">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>3</v>
+      </c>
+      <c r="B101" t="s">
+        <v>112</v>
+      </c>
+      <c r="C101">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>3</v>
+      </c>
+      <c r="B102" t="s">
+        <v>113</v>
+      </c>
+      <c r="C102">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>7</v>
+      </c>
+      <c r="B103" t="s">
+        <v>27</v>
+      </c>
+      <c r="C103">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>7</v>
+      </c>
+      <c r="B104" t="s">
+        <v>30</v>
+      </c>
+      <c r="C104">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>7</v>
+      </c>
+      <c r="B105" t="s">
+        <v>31</v>
+      </c>
+      <c r="C105">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>7</v>
+      </c>
+      <c r="B106" t="s">
+        <v>35</v>
+      </c>
+      <c r="C106">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>7</v>
+      </c>
+      <c r="B107" t="s">
+        <v>41</v>
+      </c>
+      <c r="C107">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>7</v>
+      </c>
+      <c r="B108" t="s">
+        <v>43</v>
+      </c>
+      <c r="C108">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>7</v>
+      </c>
+      <c r="B109" t="s">
+        <v>44</v>
+      </c>
+      <c r="C109">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>7</v>
+      </c>
+      <c r="B110" t="s">
+        <v>45</v>
+      </c>
+      <c r="C110">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>7</v>
+      </c>
+      <c r="B111" t="s">
+        <v>46</v>
+      </c>
+      <c r="C111">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>7</v>
+      </c>
+      <c r="B112" t="s">
+        <v>48</v>
+      </c>
+      <c r="C112">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>7</v>
+      </c>
+      <c r="B113" t="s">
+        <v>49</v>
+      </c>
+      <c r="C113">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>7</v>
+      </c>
+      <c r="B114" t="s">
+        <v>50</v>
+      </c>
+      <c r="C114">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>7</v>
+      </c>
+      <c r="B115" t="s">
+        <v>56</v>
+      </c>
+      <c r="C115">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>7</v>
+      </c>
+      <c r="B116" t="s">
+        <v>59</v>
+      </c>
+      <c r="C116">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>7</v>
+      </c>
+      <c r="B117" t="s">
+        <v>61</v>
+      </c>
+      <c r="C117">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>7</v>
+      </c>
+      <c r="B118" t="s">
+        <v>62</v>
+      </c>
+      <c r="C118">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>7</v>
+      </c>
+      <c r="B119" t="s">
+        <v>63</v>
+      </c>
+      <c r="C119">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>7</v>
+      </c>
+      <c r="B120" t="s">
+        <v>64</v>
+      </c>
+      <c r="C120">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>7</v>
+      </c>
+      <c r="B121" t="s">
+        <v>66</v>
+      </c>
+      <c r="C121">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>7</v>
+      </c>
+      <c r="B122" t="s">
+        <v>69</v>
+      </c>
+      <c r="C122">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>7</v>
+      </c>
+      <c r="B123" t="s">
+        <v>70</v>
+      </c>
+      <c r="C123">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>7</v>
+      </c>
+      <c r="B124" t="s">
+        <v>72</v>
+      </c>
+      <c r="C124">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>7</v>
+      </c>
+      <c r="B125" t="s">
+        <v>74</v>
+      </c>
+      <c r="C125">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>7</v>
+      </c>
+      <c r="B126" t="s">
+        <v>77</v>
+      </c>
+      <c r="C126">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>7</v>
+      </c>
+      <c r="B127" t="s">
+        <v>78</v>
+      </c>
+      <c r="C127">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>7</v>
+      </c>
+      <c r="B128" t="s">
+        <v>81</v>
+      </c>
+      <c r="C128">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>7</v>
+      </c>
+      <c r="B129" t="s">
+        <v>82</v>
+      </c>
+      <c r="C129">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>7</v>
+      </c>
+      <c r="B130" t="s">
+        <v>87</v>
+      </c>
+      <c r="C130">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>7</v>
+      </c>
+      <c r="B131" t="s">
+        <v>88</v>
+      </c>
+      <c r="C131">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>7</v>
+      </c>
+      <c r="B132" t="s">
+        <v>91</v>
+      </c>
+      <c r="C132">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>7</v>
+      </c>
+      <c r="B133" t="s">
+        <v>93</v>
+      </c>
+      <c r="C133">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>7</v>
+      </c>
+      <c r="B134" t="s">
+        <v>96</v>
+      </c>
+      <c r="C134">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>7</v>
+      </c>
+      <c r="B135" t="s">
+        <v>99</v>
+      </c>
+      <c r="C135">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>7</v>
+      </c>
+      <c r="B136" t="s">
+        <v>104</v>
+      </c>
+      <c r="C136">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>7</v>
+      </c>
+      <c r="B137" t="s">
+        <v>106</v>
+      </c>
+      <c r="C137">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>7</v>
+      </c>
+      <c r="B138" t="s">
+        <v>107</v>
+      </c>
+      <c r="C138">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>7</v>
+      </c>
+      <c r="B139" t="s">
+        <v>108</v>
+      </c>
+      <c r="C139">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>8</v>
+      </c>
+      <c r="B140" t="s">
+        <v>16</v>
+      </c>
+      <c r="C140">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>8</v>
+      </c>
+      <c r="B141" t="s">
+        <v>29</v>
+      </c>
+      <c r="C141">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>8</v>
+      </c>
+      <c r="B142" t="s">
+        <v>51</v>
+      </c>
+      <c r="C142">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>8</v>
+      </c>
+      <c r="B143" t="s">
+        <v>67</v>
+      </c>
+      <c r="C143">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>8</v>
+      </c>
+      <c r="B144" t="s">
+        <v>78</v>
+      </c>
+      <c r="C144">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>8</v>
+      </c>
+      <c r="B145" t="s">
+        <v>85</v>
+      </c>
+      <c r="C145">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>8</v>
+      </c>
+      <c r="B146" t="s">
+        <v>89</v>
+      </c>
+      <c r="C146">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>9</v>
+      </c>
+      <c r="B147" t="s">
+        <v>21</v>
+      </c>
+      <c r="C147">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>9</v>
+      </c>
+      <c r="B148" t="s">
+        <v>23</v>
+      </c>
+      <c r="C148">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>9</v>
+      </c>
+      <c r="B149" t="s">
+        <v>39</v>
+      </c>
+      <c r="C149">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>9</v>
+      </c>
+      <c r="B150" t="s">
+        <v>42</v>
+      </c>
+      <c r="C150">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>9</v>
+      </c>
+      <c r="B151" t="s">
+        <v>86</v>
+      </c>
+      <c r="C151">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>9</v>
+      </c>
+      <c r="B152" t="s">
+        <v>110</v>
+      </c>
+      <c r="C152">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>9</v>
+      </c>
+      <c r="B153" t="s">
+        <v>111</v>
+      </c>
+      <c r="C153">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>9</v>
+      </c>
+      <c r="B154" t="s">
+        <v>113</v>
+      </c>
+      <c r="C154">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>10</v>
+      </c>
+      <c r="B155" t="s">
+        <v>4</v>
+      </c>
+      <c r="C155">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>10</v>
+      </c>
+      <c r="B156" t="s">
+        <v>17</v>
+      </c>
+      <c r="C156">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>10</v>
+      </c>
+      <c r="B157" t="s">
+        <v>19</v>
+      </c>
+      <c r="C157">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>10</v>
+      </c>
+      <c r="B158" t="s">
+        <v>24</v>
+      </c>
+      <c r="C158">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>10</v>
+      </c>
+      <c r="B159" t="s">
+        <v>26</v>
+      </c>
+      <c r="C159">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>10</v>
+      </c>
+      <c r="B160" t="s">
+        <v>32</v>
+      </c>
+      <c r="C160">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>10</v>
+      </c>
+      <c r="B161" t="s">
+        <v>36</v>
+      </c>
+      <c r="C161">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>10</v>
+      </c>
+      <c r="B162" t="s">
+        <v>53</v>
+      </c>
+      <c r="C162">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>10</v>
+      </c>
+      <c r="B163" t="s">
+        <v>65</v>
+      </c>
+      <c r="C163">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>10</v>
+      </c>
+      <c r="B164" t="s">
+        <v>73</v>
+      </c>
+      <c r="C164">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>10</v>
+      </c>
+      <c r="B165" t="s">
+        <v>79</v>
+      </c>
+      <c r="C165">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>10</v>
+      </c>
+      <c r="B166" t="s">
+        <v>83</v>
+      </c>
+      <c r="C166">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>10</v>
+      </c>
+      <c r="B167" t="s">
+        <v>94</v>
+      </c>
+      <c r="C167">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>11</v>
+      </c>
+      <c r="B168" t="s">
+        <v>5</v>
+      </c>
+      <c r="C168">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>11</v>
+      </c>
+      <c r="B169" t="s">
+        <v>20</v>
+      </c>
+      <c r="C169">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>11</v>
+      </c>
+      <c r="B170" t="s">
+        <v>22</v>
+      </c>
+      <c r="C170">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>11</v>
+      </c>
+      <c r="B171" t="s">
+        <v>37</v>
+      </c>
+      <c r="C171">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>11</v>
+      </c>
+      <c r="B172" t="s">
+        <v>40</v>
+      </c>
+      <c r="C172">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>11</v>
+      </c>
+      <c r="B173" t="s">
+        <v>54</v>
+      </c>
+      <c r="C173">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>11</v>
+      </c>
+      <c r="B174" t="s">
+        <v>60</v>
+      </c>
+      <c r="C174">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>11</v>
+      </c>
+      <c r="B175" t="s">
+        <v>71</v>
+      </c>
+      <c r="C175">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>11</v>
+      </c>
+      <c r="B176" t="s">
+        <v>76</v>
+      </c>
+      <c r="C176">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>11</v>
+      </c>
+      <c r="B177" t="s">
+        <v>84</v>
+      </c>
+      <c r="C177">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>11</v>
+      </c>
+      <c r="B178" t="s">
+        <v>103</v>
+      </c>
+      <c r="C178">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>11</v>
+      </c>
+      <c r="B179" t="s">
+        <v>105</v>
+      </c>
+      <c r="C179">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>12</v>
+      </c>
+      <c r="B180" t="s">
+        <v>6</v>
+      </c>
+      <c r="C180">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>12</v>
+      </c>
+      <c r="B181" t="s">
+        <v>52</v>
+      </c>
+      <c r="C181">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>12</v>
+      </c>
+      <c r="B182" t="s">
+        <v>68</v>
+      </c>
+      <c r="C182">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>12</v>
+      </c>
+      <c r="B183" t="s">
+        <v>77</v>
+      </c>
+      <c r="C183">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>12</v>
+      </c>
+      <c r="B184" t="s">
+        <v>90</v>
+      </c>
+      <c r="C184">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>12</v>
+      </c>
+      <c r="B185" t="s">
+        <v>92</v>
+      </c>
+      <c r="C185">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>12</v>
+      </c>
+      <c r="B186" t="s">
+        <v>100</v>
+      </c>
+      <c r="C186">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>12</v>
+      </c>
+      <c r="B187" t="s">
+        <v>101</v>
+      </c>
+      <c r="C187">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>12</v>
+      </c>
+      <c r="B188" t="s">
+        <v>102</v>
+      </c>
+      <c r="C188">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>13</v>
+      </c>
+      <c r="B189" t="s">
+        <v>97</v>
+      </c>
+      <c r="C189">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>14</v>
+      </c>
+      <c r="B190" t="s">
+        <v>28</v>
+      </c>
+      <c r="C190">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>14</v>
+      </c>
+      <c r="B191" t="s">
+        <v>38</v>
+      </c>
+      <c r="C191">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>14</v>
+      </c>
+      <c r="B192" t="s">
+        <v>47</v>
+      </c>
+      <c r="C192">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>14</v>
+      </c>
+      <c r="B193" t="s">
+        <v>80</v>
+      </c>
+      <c r="C193">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>14</v>
+      </c>
+      <c r="B194" t="s">
+        <v>109</v>
+      </c>
+      <c r="C194">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
         <v>15</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B195" t="s">
+        <v>57</v>
+      </c>
+      <c r="C195">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>114</v>
+      </c>
+      <c r="B196" t="s">
+        <v>55</v>
+      </c>
+      <c r="C196">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>114</v>
+      </c>
+      <c r="B197" t="s">
+        <v>75</v>
+      </c>
+      <c r="C197">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>114</v>
+      </c>
+      <c r="B198" t="s">
+        <v>85</v>
+      </c>
+      <c r="C198">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>115</v>
+      </c>
+      <c r="B199" t="s">
+        <v>34</v>
+      </c>
+      <c r="C199">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>116</v>
+      </c>
+      <c r="B200" t="s">
+        <v>81</v>
+      </c>
+      <c r="C200">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>117</v>
+      </c>
+      <c r="B201" t="s">
+        <v>58</v>
+      </c>
+      <c r="C201">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>117</v>
+      </c>
+      <c r="B202" t="s">
+        <v>74</v>
+      </c>
+      <c r="C202">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>117</v>
+      </c>
+      <c r="B203" t="s">
+        <v>112</v>
+      </c>
+      <c r="C203">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>118</v>
+      </c>
+      <c r="B204" t="s">
+        <v>72</v>
+      </c>
+      <c r="C204">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>119</v>
+      </c>
+      <c r="B205" t="s">
+        <v>66</v>
+      </c>
+      <c r="C205">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>119</v>
+      </c>
+      <c r="B206" t="s">
+        <v>80</v>
+      </c>
+      <c r="C206">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>120</v>
+      </c>
+      <c r="B207" t="s">
+        <v>98</v>
+      </c>
+      <c r="C207">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>121</v>
+      </c>
+      <c r="B208" t="s">
+        <v>95</v>
+      </c>
+      <c r="C208">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>122</v>
+      </c>
+      <c r="B209" t="s">
+        <v>70</v>
+      </c>
+      <c r="C209">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>122</v>
+      </c>
+      <c r="B210" t="s">
+        <v>86</v>
+      </c>
+      <c r="C210">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>123</v>
+      </c>
+      <c r="B211" t="s">
+        <v>71</v>
+      </c>
+      <c r="C211">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>123</v>
+      </c>
+      <c r="B212" t="s">
+        <v>84</v>
+      </c>
+      <c r="C212">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>123</v>
+      </c>
+      <c r="B213" t="s">
+        <v>88</v>
+      </c>
+      <c r="C213">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>124</v>
+      </c>
+      <c r="B214" t="s">
+        <v>33</v>
+      </c>
+      <c r="C214">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>124</v>
+      </c>
+      <c r="B215" t="s">
+        <v>77</v>
+      </c>
+      <c r="C215">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>124</v>
+      </c>
+      <c r="B216" t="s">
+        <v>89</v>
+      </c>
+      <c r="C216">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>125</v>
+      </c>
+      <c r="B217" t="s">
+        <v>69</v>
+      </c>
+      <c r="C217">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>125</v>
+      </c>
+      <c r="B218" t="s">
+        <v>75</v>
+      </c>
+      <c r="C218">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>126</v>
+      </c>
+      <c r="B219" t="s">
+        <v>87</v>
+      </c>
+      <c r="C219">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>127</v>
+      </c>
+      <c r="B220" t="s">
+        <v>25</v>
+      </c>
+      <c r="C220">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>127</v>
+      </c>
+      <c r="B221" t="s">
+        <v>73</v>
+      </c>
+      <c r="C221">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>127</v>
+      </c>
+      <c r="B222" t="s">
+        <v>80</v>
+      </c>
+      <c r="C222">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>127</v>
+      </c>
+      <c r="B223" t="s">
+        <v>82</v>
+      </c>
+      <c r="C223">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>127</v>
+      </c>
+      <c r="B224" t="s">
+        <v>90</v>
+      </c>
+      <c r="C224">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>128</v>
+      </c>
+      <c r="B225" t="s">
+        <v>78</v>
+      </c>
+      <c r="C225">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>128</v>
+      </c>
+      <c r="B226" t="s">
+        <v>91</v>
+      </c>
+      <c r="C226">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>129</v>
+      </c>
+      <c r="B227" t="s">
+        <v>85</v>
+      </c>
+      <c r="C227">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>130</v>
+      </c>
+      <c r="B228" t="s">
+        <v>81</v>
+      </c>
+      <c r="C228">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>130</v>
+      </c>
+      <c r="B229" t="s">
+        <v>83</v>
+      </c>
+      <c r="C229">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>131</v>
+      </c>
+      <c r="B230" t="s">
+        <v>18</v>
+      </c>
+      <c r="C230">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>131</v>
+      </c>
+      <c r="B231" t="s">
+        <v>83</v>
+      </c>
+      <c r="C231">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>132</v>
+      </c>
+      <c r="B232" t="s">
+        <v>76</v>
+      </c>
+      <c r="C232">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>133</v>
+      </c>
+      <c r="B233" t="s">
+        <v>79</v>
+      </c>
+      <c r="C233">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>133</v>
+      </c>
+      <c r="B234" t="s">
+        <v>91</v>
+      </c>
+      <c r="C234">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>134</v>
+      </c>
+      <c r="B235" t="s">
+        <v>86</v>
+      </c>
+      <c r="C235">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>135</v>
+      </c>
+      <c r="B236" t="s">
+        <v>70</v>
+      </c>
+      <c r="C236">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>135</v>
+      </c>
+      <c r="B237" t="s">
+        <v>92</v>
+      </c>
+      <c r="C237">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>136</v>
+      </c>
+      <c r="B238" t="s">
+        <v>80</v>
+      </c>
+      <c r="C238">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>137</v>
+      </c>
+      <c r="B239" t="s">
+        <v>84</v>
+      </c>
+      <c r="C239">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>137</v>
+      </c>
+      <c r="B240" t="s">
+        <v>89</v>
+      </c>
+      <c r="C240">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>138</v>
+      </c>
+      <c r="B241" t="s">
+        <v>77</v>
+      </c>
+      <c r="C241">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>139</v>
+      </c>
+      <c r="B242" t="s">
+        <v>72</v>
+      </c>
+      <c r="C242">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>139</v>
+      </c>
+      <c r="B243" t="s">
+        <v>81</v>
+      </c>
+      <c r="C243">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>140</v>
+      </c>
+      <c r="B244" t="s">
+        <v>75</v>
+      </c>
+      <c r="C244">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>141</v>
+      </c>
+      <c r="B245" t="s">
+        <v>63</v>
+      </c>
+      <c r="C245">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>142</v>
+      </c>
+      <c r="B246" t="s">
+        <v>68</v>
+      </c>
+      <c r="C246">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>143</v>
+      </c>
+      <c r="B247" t="s">
+        <v>43</v>
+      </c>
+      <c r="C247">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>143</v>
+      </c>
+      <c r="B248" t="s">
+        <v>65</v>
+      </c>
+      <c r="C248">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>144</v>
+      </c>
+      <c r="B249" t="s">
+        <v>78</v>
+      </c>
+      <c r="C249">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>145</v>
+      </c>
+      <c r="B250" t="s">
+        <v>91</v>
+      </c>
+      <c r="C250">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>146</v>
+      </c>
+      <c r="B251" t="s">
+        <v>90</v>
+      </c>
+      <c r="C251">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>147</v>
+      </c>
+      <c r="B252" t="s">
+        <v>34</v>
+      </c>
+      <c r="C252">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>147</v>
+      </c>
+      <c r="B253" t="s">
+        <v>67</v>
+      </c>
+      <c r="C253">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>148</v>
+      </c>
+      <c r="B254" t="s">
+        <v>21</v>
+      </c>
+      <c r="C254">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>148</v>
+      </c>
+      <c r="B255" t="s">
+        <v>42</v>
+      </c>
+      <c r="C255">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>148</v>
+      </c>
+      <c r="B256" t="s">
+        <v>46</v>
+      </c>
+      <c r="C256">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>148</v>
+      </c>
+      <c r="B257" t="s">
+        <v>87</v>
+      </c>
+      <c r="C257">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>148</v>
+      </c>
+      <c r="B258" t="s">
+        <v>88</v>
+      </c>
+      <c r="C258">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>149</v>
+      </c>
+      <c r="B259" t="s">
+        <v>38</v>
+      </c>
+      <c r="C259">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>149</v>
+      </c>
+      <c r="B260" t="s">
+        <v>81</v>
+      </c>
+      <c r="C260">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>149</v>
+      </c>
+      <c r="B261" t="s">
+        <v>86</v>
+      </c>
+      <c r="C261">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>150</v>
+      </c>
+      <c r="B262" t="s">
+        <v>73</v>
+      </c>
+      <c r="C262">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>151</v>
+      </c>
+      <c r="B263" t="s">
+        <v>5</v>
+      </c>
+      <c r="C263">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>151</v>
+      </c>
+      <c r="B264" t="s">
+        <v>76</v>
+      </c>
+      <c r="C264">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>151</v>
+      </c>
+      <c r="B265" t="s">
+        <v>84</v>
+      </c>
+      <c r="C265">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>152</v>
+      </c>
+      <c r="B266" t="s">
+        <v>39</v>
+      </c>
+      <c r="C266">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>152</v>
+      </c>
+      <c r="B267" t="s">
+        <v>66</v>
+      </c>
+      <c r="C267">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>153</v>
+      </c>
+      <c r="B268" t="s">
+        <v>78</v>
+      </c>
+      <c r="C268">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>153</v>
+      </c>
+      <c r="B269" t="s">
+        <v>82</v>
+      </c>
+      <c r="C269">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>154</v>
+      </c>
+      <c r="B270" t="s">
+        <v>30</v>
+      </c>
+      <c r="C270">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>155</v>
+      </c>
+      <c r="B271" t="s">
+        <v>24</v>
+      </c>
+      <c r="C271">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>155</v>
+      </c>
+      <c r="B272" t="s">
+        <v>83</v>
+      </c>
+      <c r="C272">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>156</v>
+      </c>
+      <c r="B273" t="s">
+        <v>64</v>
+      </c>
+      <c r="C273">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>157</v>
+      </c>
+      <c r="B274" t="s">
+        <v>36</v>
+      </c>
+      <c r="C274">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>157</v>
+      </c>
+      <c r="B275" t="s">
+        <v>85</v>
+      </c>
+      <c r="C275">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>158</v>
+      </c>
+      <c r="B276" t="s">
+        <v>27</v>
+      </c>
+      <c r="C276">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>158</v>
+      </c>
+      <c r="B277" t="s">
+        <v>31</v>
+      </c>
+      <c r="C277">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>159</v>
+      </c>
+      <c r="B278" t="s">
+        <v>80</v>
+      </c>
+      <c r="C278">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>160</v>
+      </c>
+      <c r="B279" t="s">
+        <v>70</v>
+      </c>
+      <c r="C279">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>160</v>
+      </c>
+      <c r="B280" t="s">
+        <v>74</v>
+      </c>
+      <c r="C280">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>161</v>
+      </c>
+      <c r="B281" t="s">
+        <v>19</v>
+      </c>
+      <c r="C281">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>161</v>
+      </c>
+      <c r="B282" t="s">
+        <v>63</v>
+      </c>
+      <c r="C282">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>161</v>
+      </c>
+      <c r="B283" t="s">
+        <v>69</v>
+      </c>
+      <c r="C283">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
+        <v>161</v>
+      </c>
+      <c r="B284" t="s">
+        <v>84</v>
+      </c>
+      <c r="C284">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>162</v>
+      </c>
+      <c r="B285" t="s">
+        <v>90</v>
+      </c>
+      <c r="C285">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
+        <v>162</v>
+      </c>
+      <c r="B286" t="s">
+        <v>91</v>
+      </c>
+      <c r="C286">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>163</v>
+      </c>
+      <c r="B287" t="s">
+        <v>59</v>
+      </c>
+      <c r="C287">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>163</v>
+      </c>
+      <c r="B288" t="s">
+        <v>89</v>
+      </c>
+      <c r="C288">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>164</v>
+      </c>
+      <c r="B289" t="s">
+        <v>62</v>
+      </c>
+      <c r="C289">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>165</v>
+      </c>
+      <c r="B290" t="s">
+        <v>65</v>
+      </c>
+      <c r="C290">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
+        <v>166</v>
+      </c>
+      <c r="B291" t="s">
+        <v>92</v>
+      </c>
+      <c r="C291">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
+        <v>167</v>
+      </c>
+      <c r="B292" t="s">
+        <v>17</v>
+      </c>
+      <c r="C292">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
+        <v>167</v>
+      </c>
+      <c r="B293" t="s">
+        <v>95</v>
+      </c>
+      <c r="C293">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
+        <v>168</v>
+      </c>
+      <c r="B294" t="s">
+        <v>32</v>
+      </c>
+      <c r="C294">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
+        <v>168</v>
+      </c>
+      <c r="B295" t="s">
+        <v>70</v>
+      </c>
+      <c r="C295">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
+        <v>169</v>
+      </c>
+      <c r="B296" t="s">
+        <v>113</v>
+      </c>
+      <c r="C296">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
+        <v>170</v>
+      </c>
+      <c r="B297" t="s">
+        <v>78</v>
+      </c>
+      <c r="C297">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
+        <v>171</v>
+      </c>
+      <c r="B298" t="s">
         <v>4</v>
       </c>
-      <c r="C13">
-        <v>100</v>
+      <c r="C298">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
+        <v>171</v>
+      </c>
+      <c r="B299" t="s">
+        <v>75</v>
+      </c>
+      <c r="C299">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
+        <v>171</v>
+      </c>
+      <c r="B300" t="s">
+        <v>81</v>
+      </c>
+      <c r="C300">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
+        <v>171</v>
+      </c>
+      <c r="B301" t="s">
+        <v>85</v>
+      </c>
+      <c r="C301">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
+        <v>172</v>
+      </c>
+      <c r="B302" t="s">
+        <v>70</v>
+      </c>
+      <c r="C302">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
+        <v>172</v>
+      </c>
+      <c r="B303" t="s">
+        <v>72</v>
+      </c>
+      <c r="C303">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
+        <v>173</v>
+      </c>
+      <c r="B304" t="s">
+        <v>79</v>
+      </c>
+      <c r="C304">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
+        <v>173</v>
+      </c>
+      <c r="B305" t="s">
+        <v>88</v>
+      </c>
+      <c r="C305">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
+        <v>174</v>
+      </c>
+      <c r="B306" t="s">
+        <v>29</v>
+      </c>
+      <c r="C306">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
+        <v>174</v>
+      </c>
+      <c r="B307" t="s">
+        <v>40</v>
+      </c>
+      <c r="C307">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A308" t="s">
+        <v>174</v>
+      </c>
+      <c r="B308" t="s">
+        <v>44</v>
+      </c>
+      <c r="C308">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A309" t="s">
+        <v>174</v>
+      </c>
+      <c r="B309" t="s">
+        <v>50</v>
+      </c>
+      <c r="C309">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
+        <v>174</v>
+      </c>
+      <c r="B310" t="s">
+        <v>77</v>
+      </c>
+      <c r="C310">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
+        <v>174</v>
+      </c>
+      <c r="B311" t="s">
+        <v>80</v>
+      </c>
+      <c r="C311">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A312" t="s">
+        <v>174</v>
+      </c>
+      <c r="B312" t="s">
+        <v>87</v>
+      </c>
+      <c r="C312">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
+        <v>174</v>
+      </c>
+      <c r="B313" t="s">
+        <v>90</v>
+      </c>
+      <c r="C313">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A314" t="s">
+        <v>175</v>
+      </c>
+      <c r="B314" t="s">
+        <v>71</v>
+      </c>
+      <c r="C314">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
+        <v>175</v>
+      </c>
+      <c r="B315" t="s">
+        <v>104</v>
+      </c>
+      <c r="C315">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A316" t="s">
+        <v>176</v>
+      </c>
+      <c r="B316" t="s">
+        <v>69</v>
+      </c>
+      <c r="C316">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A317" t="s">
+        <v>176</v>
+      </c>
+      <c r="B317" t="s">
+        <v>83</v>
+      </c>
+      <c r="C317">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A318" t="s">
+        <v>177</v>
+      </c>
+      <c r="B318" t="s">
+        <v>26</v>
+      </c>
+      <c r="C318">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A319" t="s">
+        <v>177</v>
+      </c>
+      <c r="B319" t="s">
+        <v>110</v>
+      </c>
+      <c r="C319">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A320" t="s">
+        <v>178</v>
+      </c>
+      <c r="B320" t="s">
+        <v>18</v>
+      </c>
+      <c r="C320">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
+        <v>178</v>
+      </c>
+      <c r="B321" t="s">
+        <v>23</v>
+      </c>
+      <c r="C321">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
+        <v>178</v>
+      </c>
+      <c r="B322" t="s">
+        <v>93</v>
+      </c>
+      <c r="C322">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
+        <v>178</v>
+      </c>
+      <c r="B323" t="s">
+        <v>109</v>
+      </c>
+      <c r="C323">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
+        <v>179</v>
+      </c>
+      <c r="B324" t="s">
+        <v>41</v>
+      </c>
+      <c r="C324">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
+        <v>179</v>
+      </c>
+      <c r="B325" t="s">
+        <v>67</v>
+      </c>
+      <c r="C325">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
+        <v>179</v>
+      </c>
+      <c r="B326" t="s">
+        <v>86</v>
+      </c>
+      <c r="C326">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
+        <v>180</v>
+      </c>
+      <c r="B327" t="s">
+        <v>16</v>
+      </c>
+      <c r="C327">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
+        <v>180</v>
+      </c>
+      <c r="B328" t="s">
+        <v>25</v>
+      </c>
+      <c r="C328">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
+        <v>180</v>
+      </c>
+      <c r="B329" t="s">
+        <v>57</v>
+      </c>
+      <c r="C329">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
+        <v>180</v>
+      </c>
+      <c r="B330" t="s">
+        <v>92</v>
+      </c>
+      <c r="C330">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
+        <v>181</v>
+      </c>
+      <c r="B331" t="s">
+        <v>28</v>
+      </c>
+      <c r="C331">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A332" t="s">
+        <v>182</v>
+      </c>
+      <c r="B332" t="s">
+        <v>22</v>
+      </c>
+      <c r="C332">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
+        <v>182</v>
+      </c>
+      <c r="B333" t="s">
+        <v>105</v>
+      </c>
+      <c r="C333">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
+        <v>183</v>
+      </c>
+      <c r="B334" t="s">
+        <v>64</v>
+      </c>
+      <c r="C334">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
+        <v>183</v>
+      </c>
+      <c r="B335" t="s">
+        <v>73</v>
+      </c>
+      <c r="C335">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
+        <v>183</v>
+      </c>
+      <c r="B336" t="s">
+        <v>85</v>
+      </c>
+      <c r="C336">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
+        <v>184</v>
+      </c>
+      <c r="B337" t="s">
+        <v>33</v>
+      </c>
+      <c r="C337">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A338" t="s">
+        <v>184</v>
+      </c>
+      <c r="B338" t="s">
+        <v>58</v>
+      </c>
+      <c r="C338">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
+        <v>184</v>
+      </c>
+      <c r="B339" t="s">
+        <v>70</v>
+      </c>
+      <c r="C339">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A340" t="s">
+        <v>185</v>
+      </c>
+      <c r="B340" t="s">
+        <v>71</v>
+      </c>
+      <c r="C340">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A341" t="s">
+        <v>185</v>
+      </c>
+      <c r="B341" t="s">
+        <v>78</v>
+      </c>
+      <c r="C341">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
+        <v>186</v>
+      </c>
+      <c r="B342" t="s">
+        <v>74</v>
+      </c>
+      <c r="C342">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
+        <v>186</v>
+      </c>
+      <c r="B343" t="s">
+        <v>76</v>
+      </c>
+      <c r="C343">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
+        <v>186</v>
+      </c>
+      <c r="B344" t="s">
+        <v>77</v>
+      </c>
+      <c r="C344">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A345" t="s">
+        <v>186</v>
+      </c>
+      <c r="B345" t="s">
+        <v>81</v>
+      </c>
+      <c r="C345">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
+        <v>186</v>
+      </c>
+      <c r="B346" t="s">
+        <v>87</v>
+      </c>
+      <c r="C346">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
+        <v>186</v>
+      </c>
+      <c r="B347" t="s">
+        <v>89</v>
+      </c>
+      <c r="C347">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A348" t="s">
+        <v>187</v>
+      </c>
+      <c r="B348" t="s">
+        <v>90</v>
+      </c>
+      <c r="C348">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
+        <v>188</v>
+      </c>
+      <c r="B349" t="s">
+        <v>45</v>
+      </c>
+      <c r="C349">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
+        <v>188</v>
+      </c>
+      <c r="B350" t="s">
+        <v>91</v>
+      </c>
+      <c r="C350">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
+        <v>189</v>
+      </c>
+      <c r="B351" t="s">
+        <v>70</v>
+      </c>
+      <c r="C351">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
+        <v>189</v>
+      </c>
+      <c r="B352" t="s">
+        <v>82</v>
+      </c>
+      <c r="C352">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
+        <v>190</v>
+      </c>
+      <c r="B353" t="s">
+        <v>20</v>
+      </c>
+      <c r="C353">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
+        <v>190</v>
+      </c>
+      <c r="B354" t="s">
+        <v>91</v>
+      </c>
+      <c r="C354">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A355" t="s">
+        <v>191</v>
+      </c>
+      <c r="B355" t="s">
+        <v>80</v>
+      </c>
+      <c r="C355">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A356" t="s">
+        <v>191</v>
+      </c>
+      <c r="B356" t="s">
+        <v>108</v>
+      </c>
+      <c r="C356">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A357" t="s">
+        <v>192</v>
+      </c>
+      <c r="B357" t="s">
+        <v>52</v>
+      </c>
+      <c r="C357">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A358" t="s">
+        <v>192</v>
+      </c>
+      <c r="B358" t="s">
+        <v>55</v>
+      </c>
+      <c r="C358">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A359" t="s">
+        <v>192</v>
+      </c>
+      <c r="B359" t="s">
+        <v>72</v>
+      </c>
+      <c r="C359">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A360" t="s">
+        <v>193</v>
+      </c>
+      <c r="B360" t="s">
+        <v>63</v>
+      </c>
+      <c r="C360">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A361" t="s">
+        <v>194</v>
+      </c>
+      <c r="B361" t="s">
+        <v>84</v>
+      </c>
+      <c r="C361">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A362" t="s">
+        <v>194</v>
+      </c>
+      <c r="B362" t="s">
+        <v>88</v>
+      </c>
+      <c r="C362">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A363" t="s">
+        <v>195</v>
+      </c>
+      <c r="B363" t="s">
+        <v>54</v>
+      </c>
+      <c r="C363">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A364" t="s">
+        <v>195</v>
+      </c>
+      <c r="B364" t="s">
+        <v>65</v>
+      </c>
+      <c r="C364">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A365" t="s">
+        <v>195</v>
+      </c>
+      <c r="B365" t="s">
+        <v>68</v>
+      </c>
+      <c r="C365">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A366" t="s">
+        <v>195</v>
+      </c>
+      <c r="B366" t="s">
+        <v>69</v>
+      </c>
+      <c r="C366">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A367" t="s">
+        <v>196</v>
+      </c>
+      <c r="B367" t="s">
+        <v>79</v>
+      </c>
+      <c r="C367">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A368" t="s">
+        <v>197</v>
+      </c>
+      <c r="B368" t="s">
+        <v>35</v>
+      </c>
+      <c r="C368">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A369" t="s">
+        <v>197</v>
+      </c>
+      <c r="B369" t="s">
+        <v>42</v>
+      </c>
+      <c r="C369">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A370" t="s">
+        <v>197</v>
+      </c>
+      <c r="B370" t="s">
+        <v>49</v>
+      </c>
+      <c r="C370">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A371" t="s">
+        <v>198</v>
+      </c>
+      <c r="B371" t="s">
+        <v>112</v>
+      </c>
+      <c r="C371">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A372" t="s">
+        <v>199</v>
+      </c>
+      <c r="B372" t="s">
+        <v>80</v>
+      </c>
+      <c r="C372">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A373" t="s">
+        <v>200</v>
+      </c>
+      <c r="B373" t="s">
+        <v>66</v>
+      </c>
+      <c r="C373">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A374" t="s">
+        <v>201</v>
+      </c>
+      <c r="B374" t="s">
+        <v>37</v>
+      </c>
+      <c r="C374">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A375" t="s">
+        <v>201</v>
+      </c>
+      <c r="B375" t="s">
+        <v>60</v>
+      </c>
+      <c r="C375">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A376" t="s">
+        <v>202</v>
+      </c>
+      <c r="B376" t="s">
+        <v>75</v>
+      </c>
+      <c r="C376">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A377" t="s">
+        <v>202</v>
+      </c>
+      <c r="B377" t="s">
+        <v>106</v>
+      </c>
+      <c r="C377">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A378" t="s">
+        <v>203</v>
+      </c>
+      <c r="B378" t="s">
+        <v>89</v>
+      </c>
+      <c r="C378">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A379" t="s">
+        <v>204</v>
+      </c>
+      <c r="B379" t="s">
+        <v>5</v>
+      </c>
+      <c r="C379">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A380" t="s">
+        <v>204</v>
+      </c>
+      <c r="B380" t="s">
+        <v>78</v>
+      </c>
+      <c r="C380">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A381" t="s">
+        <v>205</v>
+      </c>
+      <c r="B381" t="s">
+        <v>6</v>
+      </c>
+      <c r="C381">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A382" t="s">
+        <v>205</v>
+      </c>
+      <c r="B382" t="s">
+        <v>86</v>
+      </c>
+      <c r="C382">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A383" t="s">
+        <v>205</v>
+      </c>
+      <c r="B383" t="s">
+        <v>99</v>
+      </c>
+      <c r="C383">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A384" t="s">
+        <v>205</v>
+      </c>
+      <c r="B384" t="s">
+        <v>111</v>
+      </c>
+      <c r="C384">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A385" t="s">
+        <v>206</v>
+      </c>
+      <c r="B385" t="s">
+        <v>74</v>
+      </c>
+      <c r="C385">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A386" t="s">
+        <v>207</v>
+      </c>
+      <c r="B386" t="s">
+        <v>34</v>
+      </c>
+      <c r="C386">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A387" t="s">
+        <v>207</v>
+      </c>
+      <c r="B387" t="s">
+        <v>62</v>
+      </c>
+      <c r="C387">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A388" t="s">
+        <v>207</v>
+      </c>
+      <c r="B388" t="s">
+        <v>71</v>
+      </c>
+      <c r="C388">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A389" t="s">
+        <v>207</v>
+      </c>
+      <c r="B389" t="s">
+        <v>77</v>
+      </c>
+      <c r="C389">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A390" t="s">
+        <v>207</v>
+      </c>
+      <c r="B390" t="s">
+        <v>107</v>
+      </c>
+      <c r="C390">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A391" t="s">
+        <v>208</v>
+      </c>
+      <c r="B391" t="s">
+        <v>82</v>
+      </c>
+      <c r="C391">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A392" t="s">
+        <v>208</v>
+      </c>
+      <c r="B392" t="s">
+        <v>102</v>
+      </c>
+      <c r="C392">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A393" t="s">
+        <v>209</v>
+      </c>
+      <c r="B393" t="s">
+        <v>17</v>
+      </c>
+      <c r="C393">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A394" t="s">
+        <v>209</v>
+      </c>
+      <c r="B394" t="s">
+        <v>51</v>
+      </c>
+      <c r="C394">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A395" t="s">
+        <v>209</v>
+      </c>
+      <c r="B395" t="s">
+        <v>92</v>
+      </c>
+      <c r="C395">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A396" t="s">
+        <v>209</v>
+      </c>
+      <c r="B396" t="s">
+        <v>100</v>
+      </c>
+      <c r="C396">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A397" t="s">
+        <v>210</v>
+      </c>
+      <c r="B397" t="s">
+        <v>56</v>
+      </c>
+      <c r="C397">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A398" t="s">
+        <v>210</v>
+      </c>
+      <c r="B398" t="s">
+        <v>83</v>
+      </c>
+      <c r="C398">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A399" t="s">
+        <v>210</v>
+      </c>
+      <c r="B399" t="s">
+        <v>85</v>
+      </c>
+      <c r="C399">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A400" t="s">
+        <v>211</v>
+      </c>
+      <c r="B400" t="s">
+        <v>43</v>
+      </c>
+      <c r="C400">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A401" t="s">
+        <v>212</v>
+      </c>
+      <c r="B401" t="s">
+        <v>70</v>
+      </c>
+      <c r="C401">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A402" t="s">
+        <v>212</v>
+      </c>
+      <c r="B402" t="s">
+        <v>88</v>
+      </c>
+      <c r="C402">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A403" t="s">
+        <v>212</v>
+      </c>
+      <c r="B403" t="s">
+        <v>97</v>
+      </c>
+      <c r="C403">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A404" t="s">
+        <v>213</v>
+      </c>
+      <c r="B404" t="s">
+        <v>73</v>
+      </c>
+      <c r="C404">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A405" t="s">
+        <v>213</v>
+      </c>
+      <c r="B405" t="s">
+        <v>94</v>
+      </c>
+      <c r="C405">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A406" t="s">
+        <v>214</v>
+      </c>
+      <c r="B406" t="s">
+        <v>76</v>
+      </c>
+      <c r="C406">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A407" t="s">
+        <v>215</v>
+      </c>
+      <c r="B407" t="s">
+        <v>36</v>
+      </c>
+      <c r="C407">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A408" t="s">
+        <v>215</v>
+      </c>
+      <c r="B408" t="s">
+        <v>46</v>
+      </c>
+      <c r="C408">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A409" t="s">
+        <v>215</v>
+      </c>
+      <c r="B409" t="s">
+        <v>67</v>
+      </c>
+      <c r="C409">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A410" t="s">
+        <v>215</v>
+      </c>
+      <c r="B410" t="s">
+        <v>69</v>
+      </c>
+      <c r="C410">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A411" t="s">
+        <v>216</v>
+      </c>
+      <c r="B411" t="s">
+        <v>68</v>
+      </c>
+      <c r="C411">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A412" t="s">
+        <v>216</v>
+      </c>
+      <c r="B412" t="s">
+        <v>79</v>
+      </c>
+      <c r="C412">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A413" t="s">
+        <v>216</v>
+      </c>
+      <c r="B413" t="s">
+        <v>84</v>
+      </c>
+      <c r="C413">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A414" t="s">
+        <v>216</v>
+      </c>
+      <c r="B414" t="s">
+        <v>87</v>
+      </c>
+      <c r="C414">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A415" t="s">
+        <v>217</v>
+      </c>
+      <c r="B415" t="s">
+        <v>21</v>
+      </c>
+      <c r="C415">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A416" t="s">
+        <v>217</v>
+      </c>
+      <c r="B416" t="s">
+        <v>81</v>
+      </c>
+      <c r="C416">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A417" t="s">
+        <v>218</v>
+      </c>
+      <c r="B417" t="s">
+        <v>64</v>
+      </c>
+      <c r="C417">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A418" t="s">
+        <v>218</v>
+      </c>
+      <c r="B418" t="s">
+        <v>71</v>
+      </c>
+      <c r="C418">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A419" t="s">
+        <v>218</v>
+      </c>
+      <c r="B419" t="s">
+        <v>101</v>
+      </c>
+      <c r="C419">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A420" t="s">
+        <v>219</v>
+      </c>
+      <c r="B420" t="s">
+        <v>18</v>
+      </c>
+      <c r="C420">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A421" t="s">
+        <v>219</v>
+      </c>
+      <c r="B421" t="s">
+        <v>82</v>
+      </c>
+      <c r="C421">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A422" t="s">
+        <v>219</v>
+      </c>
+      <c r="B422" t="s">
+        <v>90</v>
+      </c>
+      <c r="C422">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A423" t="s">
+        <v>220</v>
+      </c>
+      <c r="B423" t="s">
+        <v>76</v>
+      </c>
+      <c r="C423">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A424" t="s">
+        <v>221</v>
+      </c>
+      <c r="B424" t="s">
+        <v>89</v>
+      </c>
+      <c r="C424">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A425" t="s">
+        <v>222</v>
+      </c>
+      <c r="B425" t="s">
+        <v>86</v>
+      </c>
+      <c r="C425">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A426" t="s">
+        <v>223</v>
+      </c>
+      <c r="B426" t="s">
+        <v>85</v>
+      </c>
+      <c r="C426">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A427" t="s">
+        <v>224</v>
+      </c>
+      <c r="B427" t="s">
+        <v>38</v>
+      </c>
+      <c r="C427">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A428" t="s">
+        <v>225</v>
+      </c>
+      <c r="B428" t="s">
+        <v>22</v>
+      </c>
+      <c r="C428">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A429" t="s">
+        <v>225</v>
+      </c>
+      <c r="B429" t="s">
+        <v>31</v>
+      </c>
+      <c r="C429">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A430" t="s">
+        <v>226</v>
+      </c>
+      <c r="B430" t="s">
+        <v>91</v>
+      </c>
+      <c r="C430">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A431" t="s">
+        <v>226</v>
+      </c>
+      <c r="B431" t="s">
+        <v>96</v>
+      </c>
+      <c r="C431">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A432" t="s">
+        <v>227</v>
+      </c>
+      <c r="B432" t="s">
+        <v>61</v>
+      </c>
+      <c r="C432">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A433" t="s">
+        <v>227</v>
+      </c>
+      <c r="B433" t="s">
+        <v>74</v>
+      </c>
+      <c r="C433">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A434" t="s">
+        <v>228</v>
+      </c>
+      <c r="B434" t="s">
+        <v>53</v>
+      </c>
+      <c r="C434">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A435" t="s">
+        <v>228</v>
+      </c>
+      <c r="B435" t="s">
+        <v>70</v>
+      </c>
+      <c r="C435">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A436" t="s">
+        <v>228</v>
+      </c>
+      <c r="B436" t="s">
+        <v>83</v>
+      </c>
+      <c r="C436">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A437" t="s">
+        <v>228</v>
+      </c>
+      <c r="B437" t="s">
+        <v>90</v>
+      </c>
+      <c r="C437">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A438" t="s">
+        <v>229</v>
+      </c>
+      <c r="B438" t="s">
+        <v>32</v>
+      </c>
+      <c r="C438">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A439" t="s">
+        <v>229</v>
+      </c>
+      <c r="B439" t="s">
+        <v>69</v>
+      </c>
+      <c r="C439">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A440" t="s">
+        <v>230</v>
+      </c>
+      <c r="B440" t="s">
+        <v>92</v>
+      </c>
+      <c r="C440">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A441" t="s">
+        <v>231</v>
+      </c>
+      <c r="B441" t="s">
+        <v>95</v>
+      </c>
+      <c r="C441">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A442" t="s">
+        <v>232</v>
+      </c>
+      <c r="B442" t="s">
+        <v>42</v>
+      </c>
+      <c r="C442">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A443" t="s">
+        <v>232</v>
+      </c>
+      <c r="B443" t="s">
+        <v>103</v>
+      </c>
+      <c r="C443">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A444" t="s">
+        <v>233</v>
+      </c>
+      <c r="B444" t="s">
+        <v>48</v>
+      </c>
+      <c r="C444">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A445" t="s">
+        <v>234</v>
+      </c>
+      <c r="B445" t="s">
+        <v>4</v>
+      </c>
+      <c r="C445">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A446" t="s">
+        <v>235</v>
+      </c>
+      <c r="B446" t="s">
+        <v>39</v>
+      </c>
+      <c r="C446">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A447" t="s">
+        <v>235</v>
+      </c>
+      <c r="B447" t="s">
+        <v>73</v>
+      </c>
+      <c r="C447">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A448" t="s">
+        <v>235</v>
+      </c>
+      <c r="B448" t="s">
+        <v>88</v>
+      </c>
+      <c r="C448">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A449" t="s">
+        <v>236</v>
+      </c>
+      <c r="B449" t="s">
+        <v>20</v>
+      </c>
+      <c r="C449">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A450" t="s">
+        <v>237</v>
+      </c>
+      <c r="B450" t="s">
+        <v>72</v>
+      </c>
+      <c r="C450">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A451" t="s">
+        <v>237</v>
+      </c>
+      <c r="B451" t="s">
+        <v>79</v>
+      </c>
+      <c r="C451">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A452" t="s">
+        <v>238</v>
+      </c>
+      <c r="B452" t="s">
+        <v>26</v>
+      </c>
+      <c r="C452">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A453" t="s">
+        <v>238</v>
+      </c>
+      <c r="B453" t="s">
+        <v>41</v>
+      </c>
+      <c r="C453">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A454" t="s">
+        <v>238</v>
+      </c>
+      <c r="B454" t="s">
+        <v>66</v>
+      </c>
+      <c r="C454">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A455" t="s">
+        <v>238</v>
+      </c>
+      <c r="B455" t="s">
+        <v>91</v>
+      </c>
+      <c r="C455">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A456" t="s">
+        <v>239</v>
+      </c>
+      <c r="B456" t="s">
+        <v>27</v>
+      </c>
+      <c r="C456">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A457" t="s">
+        <v>239</v>
+      </c>
+      <c r="B457" t="s">
+        <v>75</v>
+      </c>
+      <c r="C457">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A458" t="s">
+        <v>240</v>
+      </c>
+      <c r="B458" t="s">
+        <v>71</v>
+      </c>
+      <c r="C458">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A459" t="s">
+        <v>240</v>
+      </c>
+      <c r="B459" t="s">
+        <v>98</v>
+      </c>
+      <c r="C459">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A460" t="s">
+        <v>241</v>
+      </c>
+      <c r="B460" t="s">
+        <v>87</v>
+      </c>
+      <c r="C460">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A461" t="s">
+        <v>242</v>
+      </c>
+      <c r="B461" t="s">
+        <v>65</v>
+      </c>
+      <c r="C461">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A462" t="s">
+        <v>243</v>
+      </c>
+      <c r="B462" t="s">
+        <v>28</v>
+      </c>
+      <c r="C462">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A463" t="s">
+        <v>243</v>
+      </c>
+      <c r="B463" t="s">
+        <v>88</v>
+      </c>
+      <c r="C463">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A464" t="s">
+        <v>243</v>
+      </c>
+      <c r="B464" t="s">
+        <v>89</v>
+      </c>
+      <c r="C464">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A465" t="s">
+        <v>244</v>
+      </c>
+      <c r="B465" t="s">
+        <v>85</v>
+      </c>
+      <c r="C465">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A466" t="s">
+        <v>245</v>
+      </c>
+      <c r="B466" t="s">
+        <v>86</v>
+      </c>
+      <c r="C466">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A467" t="s">
+        <v>246</v>
+      </c>
+      <c r="B467" t="s">
+        <v>24</v>
+      </c>
+      <c r="C467">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A468" t="s">
+        <v>246</v>
+      </c>
+      <c r="B468" t="s">
+        <v>30</v>
+      </c>
+      <c r="C468">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A469" t="s">
+        <v>247</v>
+      </c>
+      <c r="B469" t="s">
+        <v>16</v>
+      </c>
+      <c r="C469">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A470" t="s">
+        <v>247</v>
+      </c>
+      <c r="B470" t="s">
+        <v>81</v>
+      </c>
+      <c r="C470">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A471" t="s">
+        <v>248</v>
+      </c>
+      <c r="B471" t="s">
+        <v>25</v>
+      </c>
+      <c r="C471">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A472" t="s">
+        <v>248</v>
+      </c>
+      <c r="B472" t="s">
+        <v>29</v>
+      </c>
+      <c r="C472">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A473" t="s">
+        <v>248</v>
+      </c>
+      <c r="B473" t="s">
+        <v>62</v>
+      </c>
+      <c r="C473">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A474" t="s">
+        <v>248</v>
+      </c>
+      <c r="B474" t="s">
+        <v>69</v>
+      </c>
+      <c r="C474">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A475" t="s">
+        <v>249</v>
+      </c>
+      <c r="B475" t="s">
+        <v>70</v>
+      </c>
+      <c r="C475">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A476" t="s">
+        <v>250</v>
+      </c>
+      <c r="B476" t="s">
+        <v>23</v>
+      </c>
+      <c r="C476">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A477" t="s">
+        <v>250</v>
+      </c>
+      <c r="B477" t="s">
+        <v>78</v>
+      </c>
+      <c r="C477">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A478" t="s">
+        <v>250</v>
+      </c>
+      <c r="B478" t="s">
+        <v>83</v>
+      </c>
+      <c r="C478">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A479" t="s">
+        <v>250</v>
+      </c>
+      <c r="B479" t="s">
+        <v>85</v>
+      </c>
+      <c r="C479">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A480" t="s">
+        <v>251</v>
+      </c>
+      <c r="B480" t="s">
+        <v>50</v>
+      </c>
+      <c r="C480">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A481" t="s">
+        <v>251</v>
+      </c>
+      <c r="B481" t="s">
+        <v>73</v>
+      </c>
+      <c r="C481">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A482" t="s">
+        <v>252</v>
+      </c>
+      <c r="B482" t="s">
+        <v>63</v>
+      </c>
+      <c r="C482">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A483" t="s">
+        <v>253</v>
+      </c>
+      <c r="B483" t="s">
+        <v>45</v>
+      </c>
+      <c r="C483">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A484" t="s">
+        <v>253</v>
+      </c>
+      <c r="B484" t="s">
+        <v>68</v>
+      </c>
+      <c r="C484">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A485" t="s">
+        <v>253</v>
+      </c>
+      <c r="B485" t="s">
+        <v>74</v>
+      </c>
+      <c r="C485">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A486" t="s">
+        <v>253</v>
+      </c>
+      <c r="B486" t="s">
+        <v>76</v>
+      </c>
+      <c r="C486">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A487" t="s">
+        <v>253</v>
+      </c>
+      <c r="B487" t="s">
+        <v>82</v>
+      </c>
+      <c r="C487">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A488" t="s">
+        <v>253</v>
+      </c>
+      <c r="B488" t="s">
+        <v>87</v>
+      </c>
+      <c r="C488">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A489" t="s">
+        <v>253</v>
+      </c>
+      <c r="B489" t="s">
+        <v>92</v>
+      </c>
+      <c r="C489">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A490" t="s">
+        <v>254</v>
+      </c>
+      <c r="B490" t="s">
+        <v>40</v>
+      </c>
+      <c r="C490">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A491" t="s">
+        <v>254</v>
+      </c>
+      <c r="B491" t="s">
+        <v>79</v>
+      </c>
+      <c r="C491">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A492" t="s">
+        <v>255</v>
+      </c>
+      <c r="B492" t="s">
+        <v>90</v>
+      </c>
+      <c r="C492">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A493" t="s">
+        <v>256</v>
+      </c>
+      <c r="B493" t="s">
+        <v>19</v>
+      </c>
+      <c r="C493">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A494" t="s">
+        <v>256</v>
+      </c>
+      <c r="B494" t="s">
+        <v>80</v>
+      </c>
+      <c r="C494">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A495" t="s">
+        <v>256</v>
+      </c>
+      <c r="B495" t="s">
+        <v>91</v>
+      </c>
+      <c r="C495">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A496" t="s">
+        <v>257</v>
+      </c>
+      <c r="B496" t="s">
+        <v>47</v>
+      </c>
+      <c r="C496">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A497" t="s">
+        <v>258</v>
+      </c>
+      <c r="B497" t="s">
+        <v>44</v>
+      </c>
+      <c r="C497">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A498" t="s">
+        <v>258</v>
+      </c>
+      <c r="B498" t="s">
+        <v>75</v>
+      </c>
+      <c r="C498">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A499" t="s">
+        <v>259</v>
+      </c>
+      <c r="B499" t="s">
+        <v>58</v>
+      </c>
+      <c r="C499">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A500" t="s">
+        <v>259</v>
+      </c>
+      <c r="B500" t="s">
+        <v>71</v>
+      </c>
+      <c r="C500">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A501" t="s">
+        <v>260</v>
+      </c>
+      <c r="B501" t="s">
+        <v>84</v>
+      </c>
+      <c r="C501">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A502" t="s">
+        <v>261</v>
+      </c>
+      <c r="B502" t="s">
+        <v>33</v>
+      </c>
+      <c r="C502">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A503" t="s">
+        <v>261</v>
+      </c>
+      <c r="B503" t="s">
+        <v>71</v>
+      </c>
+      <c r="C503">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A504" t="s">
+        <v>261</v>
+      </c>
+      <c r="B504" t="s">
+        <v>72</v>
+      </c>
+      <c r="C504">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A505" t="s">
+        <v>261</v>
+      </c>
+      <c r="B505" t="s">
+        <v>77</v>
+      </c>
+      <c r="C505">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A506" t="s">
+        <v>262</v>
+      </c>
+      <c r="B506" t="s">
+        <v>84</v>
+      </c>
+      <c r="C506">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A507" t="s">
+        <v>263</v>
+      </c>
+      <c r="B507" t="s">
+        <v>17</v>
+      </c>
+      <c r="C507">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A508" t="s">
+        <v>264</v>
+      </c>
+      <c r="B508" t="s">
+        <v>34</v>
+      </c>
+      <c r="C508">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A509" t="s">
+        <v>265</v>
+      </c>
+      <c r="B509" t="s">
+        <v>69</v>
+      </c>
+      <c r="C509">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A510" t="s">
+        <v>265</v>
+      </c>
+      <c r="B510" t="s">
+        <v>88</v>
+      </c>
+      <c r="C510">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A511" t="s">
+        <v>266</v>
+      </c>
+      <c r="B511" t="s">
+        <v>67</v>
+      </c>
+      <c r="C511">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A512" t="s">
+        <v>267</v>
+      </c>
+      <c r="B512" t="s">
+        <v>55</v>
+      </c>
+      <c r="C512">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A513" t="s">
+        <v>267</v>
+      </c>
+      <c r="B513" t="s">
+        <v>91</v>
+      </c>
+      <c r="C513">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A514" t="s">
+        <v>268</v>
+      </c>
+      <c r="B514" t="s">
+        <v>89</v>
+      </c>
+      <c r="C514">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A515" t="s">
+        <v>269</v>
+      </c>
+      <c r="B515" t="s">
+        <v>36</v>
+      </c>
+      <c r="C515">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A516" t="s">
+        <v>270</v>
+      </c>
+      <c r="B516" t="s">
+        <v>37</v>
+      </c>
+      <c r="C516">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A517" t="s">
+        <v>270</v>
+      </c>
+      <c r="B517" t="s">
+        <v>59</v>
+      </c>
+      <c r="C517">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A518" t="s">
+        <v>270</v>
+      </c>
+      <c r="B518" t="s">
+        <v>80</v>
+      </c>
+      <c r="C518">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A519" t="s">
+        <v>271</v>
+      </c>
+      <c r="B519" t="s">
+        <v>5</v>
+      </c>
+      <c r="C519">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A520" t="s">
+        <v>271</v>
+      </c>
+      <c r="B520" t="s">
+        <v>75</v>
+      </c>
+      <c r="C520">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A521" t="s">
+        <v>272</v>
+      </c>
+      <c r="B521" t="s">
+        <v>87</v>
+      </c>
+      <c r="C521">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A522" t="s">
+        <v>273</v>
+      </c>
+      <c r="B522" t="s">
+        <v>83</v>
+      </c>
+      <c r="C522">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A523" t="s">
+        <v>274</v>
+      </c>
+      <c r="B523" t="s">
+        <v>78</v>
+      </c>
+      <c r="C523">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A524" t="s">
+        <v>275</v>
+      </c>
+      <c r="B524" t="s">
+        <v>52</v>
+      </c>
+      <c r="C524">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A525" t="s">
+        <v>275</v>
+      </c>
+      <c r="B525" t="s">
+        <v>57</v>
+      </c>
+      <c r="C525">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A526" t="s">
+        <v>275</v>
+      </c>
+      <c r="B526" t="s">
+        <v>64</v>
+      </c>
+      <c r="C526">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A527" t="s">
+        <v>275</v>
+      </c>
+      <c r="B527" t="s">
+        <v>92</v>
+      </c>
+      <c r="C527">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A528" t="s">
+        <v>276</v>
+      </c>
+      <c r="B528" t="s">
+        <v>80</v>
+      </c>
+      <c r="C528">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A529" t="s">
+        <v>277</v>
+      </c>
+      <c r="B529" t="s">
+        <v>71</v>
+      </c>
+      <c r="C529">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A530" t="s">
+        <v>277</v>
+      </c>
+      <c r="B530" t="s">
+        <v>74</v>
+      </c>
+      <c r="C530">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A531" t="s">
+        <v>278</v>
+      </c>
+      <c r="B531" t="s">
+        <v>77</v>
+      </c>
+      <c r="C531">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A532" t="s">
+        <v>279</v>
+      </c>
+      <c r="B532" t="s">
+        <v>73</v>
+      </c>
+      <c r="C532">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A533" t="s">
+        <v>280</v>
+      </c>
+      <c r="B533" t="s">
+        <v>91</v>
+      </c>
+      <c r="C533">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A534" t="s">
+        <v>281</v>
+      </c>
+      <c r="B534" t="s">
+        <v>62</v>
+      </c>
+      <c r="C534">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A535" t="s">
+        <v>281</v>
+      </c>
+      <c r="B535" t="s">
+        <v>70</v>
+      </c>
+      <c r="C535">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A536" t="s">
+        <v>281</v>
+      </c>
+      <c r="B536" t="s">
+        <v>101</v>
+      </c>
+      <c r="C536">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A537" t="s">
+        <v>281</v>
+      </c>
+      <c r="B537" t="s">
+        <v>104</v>
+      </c>
+      <c r="C537">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A538" t="s">
+        <v>281</v>
+      </c>
+      <c r="B538" t="s">
+        <v>105</v>
+      </c>
+      <c r="C538">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A539" t="s">
+        <v>281</v>
+      </c>
+      <c r="B539" t="s">
+        <v>110</v>
+      </c>
+      <c r="C539">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A540" t="s">
+        <v>282</v>
+      </c>
+      <c r="B540" t="s">
+        <v>86</v>
+      </c>
+      <c r="C540">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A541" t="s">
+        <v>283</v>
+      </c>
+      <c r="B541" t="s">
+        <v>65</v>
+      </c>
+      <c r="C541">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A542" t="s">
+        <v>283</v>
+      </c>
+      <c r="B542" t="s">
+        <v>83</v>
+      </c>
+      <c r="C542">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A543" t="s">
+        <v>283</v>
+      </c>
+      <c r="B543" t="s">
+        <v>85</v>
+      </c>
+      <c r="C543">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A544" t="s">
+        <v>283</v>
+      </c>
+      <c r="B544" t="s">
+        <v>90</v>
+      </c>
+      <c r="C544">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A545" t="s">
+        <v>284</v>
+      </c>
+      <c r="B545" t="s">
+        <v>21</v>
+      </c>
+      <c r="C545">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A546" t="s">
+        <v>284</v>
+      </c>
+      <c r="B546" t="s">
+        <v>46</v>
+      </c>
+      <c r="C546">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A547" t="s">
+        <v>284</v>
+      </c>
+      <c r="B547" t="s">
+        <v>88</v>
+      </c>
+      <c r="C547">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A548" t="s">
+        <v>285</v>
+      </c>
+      <c r="B548" t="s">
+        <v>109</v>
+      </c>
+      <c r="C548">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A549" t="s">
+        <v>286</v>
+      </c>
+      <c r="B549" t="s">
+        <v>84</v>
+      </c>
+      <c r="C549">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A550" t="s">
+        <v>287</v>
+      </c>
+      <c r="B550" t="s">
+        <v>69</v>
+      </c>
+      <c r="C550">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A551" t="s">
+        <v>287</v>
+      </c>
+      <c r="B551" t="s">
+        <v>76</v>
+      </c>
+      <c r="C551">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A552" t="s">
+        <v>288</v>
+      </c>
+      <c r="B552" t="s">
+        <v>66</v>
+      </c>
+      <c r="C552">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A553" t="s">
+        <v>288</v>
+      </c>
+      <c r="B553" t="s">
+        <v>93</v>
+      </c>
+      <c r="C553">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A554" t="s">
+        <v>288</v>
+      </c>
+      <c r="B554" t="s">
+        <v>108</v>
+      </c>
+      <c r="C554">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="555" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A555" t="s">
+        <v>289</v>
+      </c>
+      <c r="B555" t="s">
+        <v>26</v>
+      </c>
+      <c r="C555">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A556" t="s">
+        <v>290</v>
+      </c>
+      <c r="B556" t="s">
+        <v>111</v>
+      </c>
+      <c r="C556">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="557" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A557" t="s">
+        <v>291</v>
+      </c>
+      <c r="B557" t="s">
+        <v>22</v>
+      </c>
+      <c r="C557">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="558" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A558" t="s">
+        <v>291</v>
+      </c>
+      <c r="B558" t="s">
+        <v>30</v>
+      </c>
+      <c r="C558">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="559" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A559" t="s">
+        <v>292</v>
+      </c>
+      <c r="B559" t="s">
+        <v>16</v>
+      </c>
+      <c r="C559">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A560" t="s">
+        <v>292</v>
+      </c>
+      <c r="B560" t="s">
+        <v>82</v>
+      </c>
+      <c r="C560">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="561" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A561" t="s">
+        <v>292</v>
+      </c>
+      <c r="B561" t="s">
+        <v>92</v>
+      </c>
+      <c r="C561">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A562" t="s">
+        <v>293</v>
+      </c>
+      <c r="B562" t="s">
+        <v>35</v>
+      </c>
+      <c r="C562">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="563" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A563" t="s">
+        <v>293</v>
+      </c>
+      <c r="B563" t="s">
+        <v>69</v>
+      </c>
+      <c r="C563">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="564" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A564" t="s">
+        <v>294</v>
+      </c>
+      <c r="B564" t="s">
+        <v>68</v>
+      </c>
+      <c r="C564">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A565" t="s">
+        <v>294</v>
+      </c>
+      <c r="B565" t="s">
+        <v>74</v>
+      </c>
+      <c r="C565">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A566" t="s">
+        <v>295</v>
+      </c>
+      <c r="B566" t="s">
+        <v>6</v>
+      </c>
+      <c r="C566">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A567" t="s">
+        <v>295</v>
+      </c>
+      <c r="B567" t="s">
+        <v>60</v>
+      </c>
+      <c r="C567">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="568" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A568" t="s">
+        <v>296</v>
+      </c>
+      <c r="B568" t="s">
+        <v>18</v>
+      </c>
+      <c r="C568">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A569" t="s">
+        <v>296</v>
+      </c>
+      <c r="B569" t="s">
+        <v>38</v>
+      </c>
+      <c r="C569">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="570" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A570" t="s">
+        <v>296</v>
+      </c>
+      <c r="B570" t="s">
+        <v>77</v>
+      </c>
+      <c r="C570">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="571" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A571" t="s">
+        <v>297</v>
+      </c>
+      <c r="B571" t="s">
+        <v>67</v>
+      </c>
+      <c r="C571">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="572" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A572" t="s">
+        <v>298</v>
+      </c>
+      <c r="B572" t="s">
+        <v>70</v>
+      </c>
+      <c r="C572">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="573" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A573" t="s">
+        <v>299</v>
+      </c>
+      <c r="B573" t="s">
+        <v>27</v>
+      </c>
+      <c r="C573">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="574" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A574" t="s">
+        <v>299</v>
+      </c>
+      <c r="B574" t="s">
+        <v>81</v>
+      </c>
+      <c r="C574">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="575" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A575" t="s">
+        <v>300</v>
+      </c>
+      <c r="B575" t="s">
+        <v>23</v>
+      </c>
+      <c r="C575">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="576" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A576" t="s">
+        <v>300</v>
+      </c>
+      <c r="B576" t="s">
+        <v>25</v>
+      </c>
+      <c r="C576">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="577" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A577" t="s">
+        <v>300</v>
+      </c>
+      <c r="B577" t="s">
+        <v>71</v>
+      </c>
+      <c r="C577">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="578" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A578" t="s">
+        <v>300</v>
+      </c>
+      <c r="B578" t="s">
+        <v>79</v>
+      </c>
+      <c r="C578">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="579" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A579" t="s">
+        <v>300</v>
+      </c>
+      <c r="B579" t="s">
+        <v>83</v>
+      </c>
+      <c r="C579">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="580" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A580" t="s">
+        <v>300</v>
+      </c>
+      <c r="B580" t="s">
+        <v>84</v>
+      </c>
+      <c r="C580">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="581" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A581" t="s">
+        <v>300</v>
+      </c>
+      <c r="B581" t="s">
+        <v>86</v>
+      </c>
+      <c r="C581">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="582" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A582" t="s">
+        <v>300</v>
+      </c>
+      <c r="B582" t="s">
+        <v>87</v>
+      </c>
+      <c r="C582">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="583" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A583" t="s">
+        <v>300</v>
+      </c>
+      <c r="B583" t="s">
+        <v>89</v>
+      </c>
+      <c r="C583">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="584" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A584" t="s">
+        <v>300</v>
+      </c>
+      <c r="B584" t="s">
+        <v>102</v>
+      </c>
+      <c r="C584">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="585" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A585" t="s">
+        <v>300</v>
+      </c>
+      <c r="B585" t="s">
+        <v>113</v>
+      </c>
+      <c r="C585">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="586" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A586" t="s">
+        <v>301</v>
+      </c>
+      <c r="B586" t="s">
+        <v>31</v>
+      </c>
+      <c r="C586">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="587" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A587" t="s">
+        <v>301</v>
+      </c>
+      <c r="B587" t="s">
+        <v>72</v>
+      </c>
+      <c r="C587">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="588" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A588" t="s">
+        <v>302</v>
+      </c>
+      <c r="B588" t="s">
+        <v>20</v>
+      </c>
+      <c r="C588">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="589" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A589" t="s">
+        <v>302</v>
+      </c>
+      <c r="B589" t="s">
+        <v>41</v>
+      </c>
+      <c r="C589">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="590" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A590" t="s">
+        <v>302</v>
+      </c>
+      <c r="B590" t="s">
+        <v>43</v>
+      </c>
+      <c r="C590">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="591" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A591" t="s">
+        <v>302</v>
+      </c>
+      <c r="B591" t="s">
+        <v>51</v>
+      </c>
+      <c r="C591">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="592" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A592" t="s">
+        <v>302</v>
+      </c>
+      <c r="B592" t="s">
+        <v>80</v>
+      </c>
+      <c r="C592">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="593" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A593" t="s">
+        <v>302</v>
+      </c>
+      <c r="B593" t="s">
+        <v>88</v>
+      </c>
+      <c r="C593">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="594" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A594" t="s">
+        <v>303</v>
+      </c>
+      <c r="B594" t="s">
+        <v>75</v>
+      </c>
+      <c r="C594">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="595" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A595" t="s">
+        <v>303</v>
+      </c>
+      <c r="B595" t="s">
+        <v>91</v>
+      </c>
+      <c r="C595">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="596" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A596" t="s">
+        <v>304</v>
+      </c>
+      <c r="B596" t="s">
+        <v>77</v>
+      </c>
+      <c r="C596">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="597" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A597" t="s">
+        <v>305</v>
+      </c>
+      <c r="B597" t="s">
+        <v>54</v>
+      </c>
+      <c r="C597">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="598" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A598" t="s">
+        <v>305</v>
+      </c>
+      <c r="B598" t="s">
+        <v>97</v>
+      </c>
+      <c r="C598">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="599" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A599" t="s">
+        <v>306</v>
+      </c>
+      <c r="B599" t="s">
+        <v>73</v>
+      </c>
+      <c r="C599">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="600" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A600" t="s">
+        <v>306</v>
+      </c>
+      <c r="B600" t="s">
+        <v>85</v>
+      </c>
+      <c r="C600">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="601" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A601" t="s">
+        <v>306</v>
+      </c>
+      <c r="B601" t="s">
+        <v>90</v>
+      </c>
+      <c r="C601">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="602" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A602" t="s">
+        <v>306</v>
+      </c>
+      <c r="B602" t="s">
+        <v>95</v>
+      </c>
+      <c r="C602">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="603" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A603" t="s">
+        <v>307</v>
+      </c>
+      <c r="B603" t="s">
+        <v>63</v>
+      </c>
+      <c r="C603">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="604" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A604" t="s">
+        <v>307</v>
+      </c>
+      <c r="B604" t="s">
+        <v>100</v>
+      </c>
+      <c r="C604">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="605" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A605" t="s">
+        <v>307</v>
+      </c>
+      <c r="B605" t="s">
+        <v>106</v>
+      </c>
+      <c r="C605">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="606" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A606" t="s">
+        <v>308</v>
+      </c>
+      <c r="B606" t="s">
+        <v>64</v>
+      </c>
+      <c r="C606">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="607" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A607" t="s">
+        <v>309</v>
+      </c>
+      <c r="B607" t="s">
+        <v>42</v>
+      </c>
+      <c r="C607">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="608" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A608" t="s">
+        <v>310</v>
+      </c>
+      <c r="B608" t="s">
+        <v>75</v>
+      </c>
+      <c r="C608">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="609" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A609" t="s">
+        <v>310</v>
+      </c>
+      <c r="B609" t="s">
+        <v>76</v>
+      </c>
+      <c r="C609">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="610" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A610" t="s">
+        <v>310</v>
+      </c>
+      <c r="B610" t="s">
+        <v>86</v>
+      </c>
+      <c r="C610">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="611" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A611" t="s">
+        <v>310</v>
+      </c>
+      <c r="B611" t="s">
+        <v>107</v>
+      </c>
+      <c r="C611">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="612" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A612" t="s">
+        <v>311</v>
+      </c>
+      <c r="B612" t="s">
+        <v>24</v>
+      </c>
+      <c r="C612">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="613" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A613" t="s">
+        <v>312</v>
+      </c>
+      <c r="B613" t="s">
+        <v>74</v>
+      </c>
+      <c r="C613">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="614" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A614" t="s">
+        <v>312</v>
+      </c>
+      <c r="B614" t="s">
+        <v>76</v>
+      </c>
+      <c r="C614">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="615" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A615" t="s">
+        <v>313</v>
+      </c>
+      <c r="B615" t="s">
+        <v>91</v>
+      </c>
+      <c r="C615">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="616" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A616" t="s">
+        <v>314</v>
+      </c>
+      <c r="B616" t="s">
+        <v>28</v>
+      </c>
+      <c r="C616">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="617" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A617" t="s">
+        <v>314</v>
+      </c>
+      <c r="B617" t="s">
+        <v>112</v>
+      </c>
+      <c r="C617">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="618" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A618" t="s">
+        <v>315</v>
+      </c>
+      <c r="B618" t="s">
+        <v>19</v>
+      </c>
+      <c r="C618">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="619" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A619" t="s">
+        <v>316</v>
+      </c>
+      <c r="B619" t="s">
+        <v>32</v>
+      </c>
+      <c r="C619">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="620" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A620" t="s">
+        <v>316</v>
+      </c>
+      <c r="B620" t="s">
+        <v>78</v>
+      </c>
+      <c r="C620">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="621" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A621" t="s">
+        <v>317</v>
+      </c>
+      <c r="B621" t="s">
+        <v>70</v>
+      </c>
+      <c r="C621">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="622" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A622" t="s">
+        <v>317</v>
+      </c>
+      <c r="B622" t="s">
+        <v>72</v>
+      </c>
+      <c r="C622">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="623" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A623" t="s">
+        <v>317</v>
+      </c>
+      <c r="B623" t="s">
+        <v>98</v>
+      </c>
+      <c r="C623">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="624" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A624" t="s">
+        <v>318</v>
+      </c>
+      <c r="B624" t="s">
+        <v>82</v>
+      </c>
+      <c r="C624">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="625" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A625" t="s">
+        <v>319</v>
+      </c>
+      <c r="B625" t="s">
+        <v>40</v>
+      </c>
+      <c r="C625">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="626" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A626" t="s">
+        <v>319</v>
+      </c>
+      <c r="B626" t="s">
+        <v>81</v>
+      </c>
+      <c r="C626">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="627" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A627" t="s">
+        <v>320</v>
+      </c>
+      <c r="B627" t="s">
+        <v>4</v>
+      </c>
+      <c r="C627">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="628" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A628" t="s">
+        <v>321</v>
+      </c>
+      <c r="B628" t="s">
+        <v>37</v>
+      </c>
+      <c r="C628">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="629" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A629" t="s">
+        <v>321</v>
+      </c>
+      <c r="B629" t="s">
+        <v>83</v>
+      </c>
+      <c r="C629">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="630" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A630" t="s">
+        <v>322</v>
+      </c>
+      <c r="B630" t="s">
+        <v>49</v>
+      </c>
+      <c r="C630">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="631" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A631" t="s">
+        <v>322</v>
+      </c>
+      <c r="B631" t="s">
+        <v>56</v>
+      </c>
+      <c r="C631">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="632" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A632" t="s">
+        <v>322</v>
+      </c>
+      <c r="B632" t="s">
+        <v>66</v>
+      </c>
+      <c r="C632">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="633" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A633" t="s">
+        <v>323</v>
+      </c>
+      <c r="B633" t="s">
+        <v>92</v>
+      </c>
+      <c r="C633">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="634" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A634" t="s">
+        <v>324</v>
+      </c>
+      <c r="B634" t="s">
+        <v>72</v>
+      </c>
+      <c r="C634">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="635" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A635" t="s">
+        <v>324</v>
+      </c>
+      <c r="B635" t="s">
+        <v>73</v>
+      </c>
+      <c r="C635">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="636" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A636" t="s">
+        <v>324</v>
+      </c>
+      <c r="B636" t="s">
+        <v>77</v>
+      </c>
+      <c r="C636">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="637" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A637" t="s">
+        <v>324</v>
+      </c>
+      <c r="B637" t="s">
+        <v>89</v>
+      </c>
+      <c r="C637">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="638" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A638" t="s">
+        <v>325</v>
+      </c>
+      <c r="B638" t="s">
+        <v>45</v>
+      </c>
+      <c r="C638">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="639" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A639" t="s">
+        <v>325</v>
+      </c>
+      <c r="B639" t="s">
+        <v>85</v>
+      </c>
+      <c r="C639">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="640" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A640" t="s">
+        <v>326</v>
+      </c>
+      <c r="B640" t="s">
+        <v>65</v>
+      </c>
+      <c r="C640">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="641" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A641" t="s">
+        <v>326</v>
+      </c>
+      <c r="B641" t="s">
+        <v>71</v>
+      </c>
+      <c r="C641">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="642" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A642" t="s">
+        <v>327</v>
+      </c>
+      <c r="B642" t="s">
+        <v>79</v>
+      </c>
+      <c r="C642">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="643" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A643" t="s">
+        <v>328</v>
+      </c>
+      <c r="B643" t="s">
+        <v>5</v>
+      </c>
+      <c r="C643">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="644" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A644" t="s">
+        <v>328</v>
+      </c>
+      <c r="B644" t="s">
+        <v>90</v>
+      </c>
+      <c r="C644">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="645" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A645" t="s">
+        <v>329</v>
+      </c>
+      <c r="B645" t="s">
+        <v>75</v>
+      </c>
+      <c r="C645">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="646" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A646" t="s">
+        <v>329</v>
+      </c>
+      <c r="B646" t="s">
+        <v>90</v>
+      </c>
+      <c r="C646">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="647" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A647" t="s">
+        <v>330</v>
+      </c>
+      <c r="B647" t="s">
+        <v>76</v>
+      </c>
+      <c r="C647">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="648" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A648" t="s">
+        <v>330</v>
+      </c>
+      <c r="B648" t="s">
+        <v>96</v>
+      </c>
+      <c r="C648">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="649" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A649" t="s">
+        <v>331</v>
+      </c>
+      <c r="B649" t="s">
+        <v>62</v>
+      </c>
+      <c r="C649">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="650" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A650" t="s">
+        <v>332</v>
+      </c>
+      <c r="B650" t="s">
+        <v>34</v>
+      </c>
+      <c r="C650">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="651" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A651" t="s">
+        <v>333</v>
+      </c>
+      <c r="B651" t="s">
+        <v>87</v>
+      </c>
+      <c r="C651">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="652" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A652" t="s">
+        <v>334</v>
+      </c>
+      <c r="B652" t="s">
+        <v>99</v>
+      </c>
+      <c r="C652">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="653" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A653" t="s">
+        <v>335</v>
+      </c>
+      <c r="B653" t="s">
+        <v>17</v>
+      </c>
+      <c r="C653">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="654" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A654" t="s">
+        <v>335</v>
+      </c>
+      <c r="B654" t="s">
+        <v>29</v>
+      </c>
+      <c r="C654">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="655" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A655" t="s">
+        <v>335</v>
+      </c>
+      <c r="B655" t="s">
+        <v>39</v>
+      </c>
+      <c r="C655">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="656" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A656" t="s">
+        <v>335</v>
+      </c>
+      <c r="B656" t="s">
+        <v>70</v>
+      </c>
+      <c r="C656">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="657" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A657" t="s">
+        <v>336</v>
+      </c>
+      <c r="B657" t="s">
+        <v>80</v>
+      </c>
+      <c r="C657">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="658" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A658" t="s">
+        <v>336</v>
+      </c>
+      <c r="B658" t="s">
+        <v>86</v>
+      </c>
+      <c r="C658">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="659" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A659" t="s">
+        <v>337</v>
+      </c>
+      <c r="B659" t="s">
+        <v>69</v>
+      </c>
+      <c r="C659">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="660" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A660" t="s">
+        <v>337</v>
+      </c>
+      <c r="B660" t="s">
+        <v>81</v>
+      </c>
+      <c r="C660">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="661" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A661" t="s">
+        <v>337</v>
+      </c>
+      <c r="B661" t="s">
+        <v>88</v>
+      </c>
+      <c r="C661">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="662" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A662" t="s">
+        <v>338</v>
+      </c>
+      <c r="B662" t="s">
+        <v>72</v>
+      </c>
+      <c r="C662">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="663" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A663" t="s">
+        <v>339</v>
+      </c>
+      <c r="B663" t="s">
+        <v>48</v>
+      </c>
+      <c r="C663">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="664" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A664" t="s">
+        <v>340</v>
+      </c>
+      <c r="B664" t="s">
+        <v>44</v>
+      </c>
+      <c r="C664">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="665" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A665" t="s">
+        <v>340</v>
+      </c>
+      <c r="B665" t="s">
+        <v>85</v>
+      </c>
+      <c r="C665">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="666" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A666" t="s">
+        <v>341</v>
+      </c>
+      <c r="B666" t="s">
+        <v>84</v>
+      </c>
+      <c r="C666">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="667" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A667" t="s">
+        <v>342</v>
+      </c>
+      <c r="B667" t="s">
+        <v>26</v>
+      </c>
+      <c r="C667">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="668" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A668" t="s">
+        <v>342</v>
+      </c>
+      <c r="B668" t="s">
+        <v>53</v>
+      </c>
+      <c r="C668">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="669" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A669" t="s">
+        <v>342</v>
+      </c>
+      <c r="B669" t="s">
+        <v>74</v>
+      </c>
+      <c r="C669">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="670" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A670" t="s">
+        <v>342</v>
+      </c>
+      <c r="B670" t="s">
+        <v>76</v>
+      </c>
+      <c r="C670">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="671" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A671" t="s">
+        <v>343</v>
+      </c>
+      <c r="B671" t="s">
+        <v>33</v>
+      </c>
+      <c r="C671">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="672" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A672" t="s">
+        <v>343</v>
+      </c>
+      <c r="B672" t="s">
+        <v>63</v>
+      </c>
+      <c r="C672">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="673" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A673" t="s">
+        <v>343</v>
+      </c>
+      <c r="B673" t="s">
+        <v>90</v>
+      </c>
+      <c r="C673">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="674" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A674" t="s">
+        <v>344</v>
+      </c>
+      <c r="B674" t="s">
+        <v>82</v>
+      </c>
+      <c r="C674">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="675" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A675" t="s">
+        <v>344</v>
+      </c>
+      <c r="B675" t="s">
+        <v>83</v>
+      </c>
+      <c r="C675">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="676" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A676" t="s">
+        <v>345</v>
+      </c>
+      <c r="B676" t="s">
+        <v>46</v>
+      </c>
+      <c r="C676">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="677" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A677" t="s">
+        <v>345</v>
+      </c>
+      <c r="B677" t="s">
+        <v>77</v>
+      </c>
+      <c r="C677">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="678" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A678" t="s">
+        <v>346</v>
+      </c>
+      <c r="B678" t="s">
+        <v>30</v>
+      </c>
+      <c r="C678">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="679" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A679" t="s">
+        <v>347</v>
+      </c>
+      <c r="B679" t="s">
+        <v>69</v>
+      </c>
+      <c r="C679">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="680" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A680" t="s">
+        <v>348</v>
+      </c>
+      <c r="B680" t="s">
+        <v>79</v>
+      </c>
+      <c r="C680">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="681" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A681" t="s">
+        <v>349</v>
+      </c>
+      <c r="B681" t="s">
+        <v>73</v>
+      </c>
+      <c r="C681">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="682" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A682" t="s">
+        <v>349</v>
+      </c>
+      <c r="B682" t="s">
+        <v>75</v>
+      </c>
+      <c r="C682">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="683" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A683" t="s">
+        <v>350</v>
+      </c>
+      <c r="B683" t="s">
+        <v>20</v>
+      </c>
+      <c r="C683">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="684" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A684" t="s">
+        <v>350</v>
+      </c>
+      <c r="B684" t="s">
+        <v>21</v>
+      </c>
+      <c r="C684">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="685" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A685" t="s">
+        <v>350</v>
+      </c>
+      <c r="B685" t="s">
+        <v>40</v>
+      </c>
+      <c r="C685">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="686" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A686" t="s">
+        <v>350</v>
+      </c>
+      <c r="B686" t="s">
+        <v>52</v>
+      </c>
+      <c r="C686">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="687" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A687" t="s">
+        <v>350</v>
+      </c>
+      <c r="B687" t="s">
+        <v>75</v>
+      </c>
+      <c r="C687">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="688" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A688" t="s">
+        <v>350</v>
+      </c>
+      <c r="B688" t="s">
+        <v>87</v>
+      </c>
+      <c r="C688">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="689" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A689" t="s">
+        <v>351</v>
+      </c>
+      <c r="B689" t="s">
+        <v>42</v>
+      </c>
+      <c r="C689">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="690" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A690" t="s">
+        <v>352</v>
+      </c>
+      <c r="B690" t="s">
+        <v>18</v>
+      </c>
+      <c r="C690">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="691" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A691" t="s">
+        <v>352</v>
+      </c>
+      <c r="B691" t="s">
+        <v>47</v>
+      </c>
+      <c r="C691">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="692" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A692" t="s">
+        <v>352</v>
+      </c>
+      <c r="B692" t="s">
+        <v>78</v>
+      </c>
+      <c r="C692">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="693" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A693" t="s">
+        <v>353</v>
+      </c>
+      <c r="B693" t="s">
+        <v>68</v>
+      </c>
+      <c r="C693">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="694" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A694" t="s">
+        <v>354</v>
+      </c>
+      <c r="B694" t="s">
+        <v>23</v>
+      </c>
+      <c r="C694">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="695" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A695" t="s">
+        <v>355</v>
+      </c>
+      <c r="B695" t="s">
+        <v>36</v>
+      </c>
+      <c r="C695">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="696" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A696" t="s">
+        <v>355</v>
+      </c>
+      <c r="B696" t="s">
+        <v>37</v>
+      </c>
+      <c r="C696">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="697" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A697" t="s">
+        <v>356</v>
+      </c>
+      <c r="B697" t="s">
+        <v>6</v>
+      </c>
+      <c r="C697">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="698" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A698" t="s">
+        <v>357</v>
+      </c>
+      <c r="B698" t="s">
+        <v>71</v>
+      </c>
+      <c r="C698">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="699" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A699" t="s">
+        <v>357</v>
+      </c>
+      <c r="B699" t="s">
+        <v>73</v>
+      </c>
+      <c r="C699">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="700" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A700" t="s">
+        <v>358</v>
+      </c>
+      <c r="B700" t="s">
+        <v>86</v>
+      </c>
+      <c r="C700">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="701" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A701" t="s">
+        <v>359</v>
+      </c>
+      <c r="B701" t="s">
+        <v>64</v>
+      </c>
+      <c r="C701">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="702" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A702" t="s">
+        <v>359</v>
+      </c>
+      <c r="B702" t="s">
+        <v>65</v>
+      </c>
+      <c r="C702">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="703" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A703" t="s">
+        <v>359</v>
+      </c>
+      <c r="B703" t="s">
+        <v>76</v>
+      </c>
+      <c r="C703">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="704" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A704" t="s">
+        <v>360</v>
+      </c>
+      <c r="B704" t="s">
+        <v>80</v>
+      </c>
+      <c r="C704">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="705" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A705" t="s">
+        <v>360</v>
+      </c>
+      <c r="B705" t="s">
+        <v>81</v>
+      </c>
+      <c r="C705">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="706" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A706" t="s">
+        <v>360</v>
+      </c>
+      <c r="B706" t="s">
+        <v>94</v>
+      </c>
+      <c r="C706">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="707" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A707" t="s">
+        <v>361</v>
+      </c>
+      <c r="B707" t="s">
+        <v>50</v>
+      </c>
+      <c r="C707">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="708" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A708" t="s">
+        <v>361</v>
+      </c>
+      <c r="B708" t="s">
+        <v>67</v>
+      </c>
+      <c r="C708">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="709" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A709" t="s">
+        <v>362</v>
+      </c>
+      <c r="B709" t="s">
+        <v>70</v>
+      </c>
+      <c r="C709">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="710" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A710" t="s">
+        <v>362</v>
+      </c>
+      <c r="B710" t="s">
+        <v>103</v>
+      </c>
+      <c r="C710">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="711" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A711" t="s">
+        <v>363</v>
+      </c>
+      <c r="B711" t="s">
+        <v>72</v>
+      </c>
+      <c r="C711">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="712" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A712" t="s">
+        <v>364</v>
+      </c>
+      <c r="B712" t="s">
+        <v>24</v>
+      </c>
+      <c r="C712">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="713" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A713" t="s">
+        <v>365</v>
+      </c>
+      <c r="B713" t="s">
+        <v>83</v>
+      </c>
+      <c r="C713">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="714" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A714" t="s">
+        <v>366</v>
+      </c>
+      <c r="B714" t="s">
+        <v>22</v>
+      </c>
+      <c r="C714">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="715" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A715" t="s">
+        <v>366</v>
+      </c>
+      <c r="B715" t="s">
+        <v>82</v>
+      </c>
+      <c r="C715">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="716" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A716" t="s">
+        <v>366</v>
+      </c>
+      <c r="B716" t="s">
+        <v>89</v>
+      </c>
+      <c r="C716">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="717" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A717" t="s">
+        <v>367</v>
+      </c>
+      <c r="B717" t="s">
+        <v>87</v>
+      </c>
+      <c r="C717">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="718" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A718" t="s">
+        <v>367</v>
+      </c>
+      <c r="B718" t="s">
+        <v>92</v>
+      </c>
+      <c r="C718">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="719" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A719" t="s">
+        <v>367</v>
+      </c>
+      <c r="B719" t="s">
+        <v>105</v>
+      </c>
+      <c r="C719">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="720" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A720" t="s">
+        <v>368</v>
+      </c>
+      <c r="B720" t="s">
+        <v>69</v>
+      </c>
+      <c r="C720">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="721" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A721" t="s">
+        <v>369</v>
+      </c>
+      <c r="B721" t="s">
+        <v>19</v>
+      </c>
+      <c r="C721">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="722" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A722" t="s">
+        <v>369</v>
+      </c>
+      <c r="B722" t="s">
+        <v>27</v>
+      </c>
+      <c r="C722">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="723" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A723" t="s">
+        <v>369</v>
+      </c>
+      <c r="B723" t="s">
+        <v>41</v>
+      </c>
+      <c r="C723">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="724" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A724" t="s">
+        <v>370</v>
+      </c>
+      <c r="B724" t="s">
+        <v>32</v>
+      </c>
+      <c r="C724">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="725" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A725" t="s">
+        <v>370</v>
+      </c>
+      <c r="B725" t="s">
+        <v>35</v>
+      </c>
+      <c r="C725">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="726" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A726" t="s">
+        <v>370</v>
+      </c>
+      <c r="B726" t="s">
+        <v>77</v>
+      </c>
+      <c r="C726">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="727" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A727" t="s">
+        <v>371</v>
+      </c>
+      <c r="B727" t="s">
+        <v>90</v>
+      </c>
+      <c r="C727">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="728" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A728" t="s">
+        <v>372</v>
+      </c>
+      <c r="B728" t="s">
+        <v>25</v>
+      </c>
+      <c r="C728">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="729" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A729" t="s">
+        <v>372</v>
+      </c>
+      <c r="B729" t="s">
+        <v>43</v>
+      </c>
+      <c r="C729">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="730" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A730" t="s">
+        <v>372</v>
+      </c>
+      <c r="B730" t="s">
+        <v>66</v>
+      </c>
+      <c r="C730">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="731" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A731" t="s">
+        <v>372</v>
+      </c>
+      <c r="B731" t="s">
+        <v>71</v>
+      </c>
+      <c r="C731">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="732" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A732" t="s">
+        <v>373</v>
+      </c>
+      <c r="B732" t="s">
+        <v>85</v>
+      </c>
+      <c r="C732">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="733" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A733" t="s">
+        <v>374</v>
+      </c>
+      <c r="B733" t="s">
+        <v>58</v>
+      </c>
+      <c r="C733">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="734" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A734" t="s">
+        <v>374</v>
+      </c>
+      <c r="B734" t="s">
+        <v>78</v>
+      </c>
+      <c r="C734">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="735" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A735" t="s">
+        <v>375</v>
+      </c>
+      <c r="B735" t="s">
+        <v>31</v>
+      </c>
+      <c r="C735">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="736" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A736" t="s">
+        <v>375</v>
+      </c>
+      <c r="B736" t="s">
+        <v>73</v>
+      </c>
+      <c r="C736">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="737" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A737" t="s">
+        <v>375</v>
+      </c>
+      <c r="B737" t="s">
+        <v>83</v>
+      </c>
+      <c r="C737">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="738" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A738" t="s">
+        <v>375</v>
+      </c>
+      <c r="B738" t="s">
+        <v>88</v>
+      </c>
+      <c r="C738">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="739" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A739" t="s">
+        <v>375</v>
+      </c>
+      <c r="B739" t="s">
+        <v>104</v>
+      </c>
+      <c r="C739">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="740" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A740" t="s">
+        <v>376</v>
+      </c>
+      <c r="B740" t="s">
+        <v>28</v>
+      </c>
+      <c r="C740">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="741" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A741" t="s">
+        <v>376</v>
+      </c>
+      <c r="B741" t="s">
+        <v>62</v>
+      </c>
+      <c r="C741">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="742" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A742" t="s">
+        <v>376</v>
+      </c>
+      <c r="B742" t="s">
+        <v>91</v>
+      </c>
+      <c r="C742">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="743" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A743" t="s">
+        <v>377</v>
+      </c>
+      <c r="B743" t="s">
+        <v>59</v>
+      </c>
+      <c r="C743">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="744" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A744" t="s">
+        <v>377</v>
+      </c>
+      <c r="B744" t="s">
+        <v>84</v>
+      </c>
+      <c r="C744">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="745" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A745" t="s">
+        <v>378</v>
+      </c>
+      <c r="B745" t="s">
+        <v>34</v>
+      </c>
+      <c r="C745">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="746" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A746" t="s">
+        <v>378</v>
+      </c>
+      <c r="B746" t="s">
+        <v>84</v>
+      </c>
+      <c r="C746">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="747" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A747" t="s">
+        <v>379</v>
+      </c>
+      <c r="B747" t="s">
+        <v>38</v>
+      </c>
+      <c r="C747">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="748" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A748" t="s">
+        <v>380</v>
+      </c>
+      <c r="B748" t="s">
+        <v>4</v>
+      </c>
+      <c r="C748">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="749" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A749" t="s">
+        <v>380</v>
+      </c>
+      <c r="B749" t="s">
+        <v>107</v>
+      </c>
+      <c r="C749">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="750" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A750" t="s">
+        <v>381</v>
+      </c>
+      <c r="B750" t="s">
+        <v>16</v>
+      </c>
+      <c r="C750">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="751" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A751" t="s">
+        <v>381</v>
+      </c>
+      <c r="B751" t="s">
+        <v>71</v>
+      </c>
+      <c r="C751">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="752" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A752" t="s">
+        <v>381</v>
+      </c>
+      <c r="B752" t="s">
+        <v>83</v>
+      </c>
+      <c r="C752">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="753" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A753" t="s">
+        <v>382</v>
+      </c>
+      <c r="B753" t="s">
+        <v>87</v>
+      </c>
+      <c r="C753">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="754" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A754" t="s">
+        <v>382</v>
+      </c>
+      <c r="B754" t="s">
+        <v>95</v>
+      </c>
+      <c r="C754">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="755" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A755" t="s">
+        <v>383</v>
+      </c>
+      <c r="B755" t="s">
+        <v>17</v>
+      </c>
+      <c r="C755">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="756" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A756" t="s">
+        <v>383</v>
+      </c>
+      <c r="B756" t="s">
+        <v>80</v>
+      </c>
+      <c r="C756">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="757" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A757" t="s">
+        <v>384</v>
+      </c>
+      <c r="B757" t="s">
+        <v>61</v>
+      </c>
+      <c r="C757">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="758" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A758" t="s">
+        <v>385</v>
+      </c>
+      <c r="B758" t="s">
+        <v>55</v>
+      </c>
+      <c r="C758">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="759" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A759" t="s">
+        <v>385</v>
+      </c>
+      <c r="B759" t="s">
+        <v>57</v>
+      </c>
+      <c r="C759">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="760" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A760" t="s">
+        <v>385</v>
+      </c>
+      <c r="B760" t="s">
+        <v>63</v>
+      </c>
+      <c r="C760">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="761" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A761" t="s">
+        <v>385</v>
+      </c>
+      <c r="B761" t="s">
+        <v>76</v>
+      </c>
+      <c r="C761">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="762" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A762" t="s">
+        <v>385</v>
+      </c>
+      <c r="B762" t="s">
+        <v>86</v>
+      </c>
+      <c r="C762">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="763" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A763" t="s">
+        <v>385</v>
+      </c>
+      <c r="B763" t="s">
+        <v>92</v>
+      </c>
+      <c r="C763">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="764" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A764" t="s">
+        <v>386</v>
+      </c>
+      <c r="B764" t="s">
+        <v>77</v>
+      </c>
+      <c r="C764">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="765" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A765" t="s">
+        <v>386</v>
+      </c>
+      <c r="B765" t="s">
+        <v>79</v>
+      </c>
+      <c r="C765">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="766" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A766" t="s">
+        <v>386</v>
+      </c>
+      <c r="B766" t="s">
+        <v>89</v>
+      </c>
+      <c r="C766">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="767" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A767" t="s">
+        <v>386</v>
+      </c>
+      <c r="B767" t="s">
+        <v>91</v>
+      </c>
+      <c r="C767">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="768" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A768" t="s">
+        <v>386</v>
+      </c>
+      <c r="B768" t="s">
+        <v>110</v>
+      </c>
+      <c r="C768">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="769" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A769" t="s">
+        <v>387</v>
+      </c>
+      <c r="B769" t="s">
+        <v>108</v>
+      </c>
+      <c r="C769">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="770" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A770" t="s">
+        <v>388</v>
+      </c>
+      <c r="B770" t="s">
+        <v>90</v>
+      </c>
+      <c r="C770">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="771" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A771" t="s">
+        <v>388</v>
+      </c>
+      <c r="B771" t="s">
+        <v>111</v>
+      </c>
+      <c r="C771">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="772" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A772" t="s">
+        <v>389</v>
+      </c>
+      <c r="B772" t="s">
+        <v>29</v>
+      </c>
+      <c r="C772">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="773" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A773" t="s">
+        <v>389</v>
+      </c>
+      <c r="B773" t="s">
+        <v>73</v>
+      </c>
+      <c r="C773">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="774" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A774" t="s">
+        <v>389</v>
+      </c>
+      <c r="B774" t="s">
+        <v>85</v>
+      </c>
+      <c r="C774">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="775" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A775" t="s">
+        <v>390</v>
+      </c>
+      <c r="B775" t="s">
+        <v>20</v>
+      </c>
+      <c r="C775">
+        <v>290</v>
       </c>
     </row>
   </sheetData>
